--- a/data/hotels_by_city/Dallas/Dallas_shard_509.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_509.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="685">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1945 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r586634928-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>7149417</t>
+  </si>
+  <si>
+    <t>586634928</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Dogs are a problem</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel and was impressed by the cleanliness. However, this hotel allows dogs, which was definitely unexpected for the price range. Needless to say got zero sleep on our second night here due to a dog incessantly barking...ALL NIGHT, despite repeated calls to the service desk. Miserable the next day.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r575332062-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>575332062</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Great night's stay</t>
+  </si>
+  <si>
+    <t>Pleasant, stylish, quiet rooms with basic, but ample amenities.  Very clean and new.  Convenient to gas and many restaurants.  Breakfast was just ok.  Could have been improved with more protein options and real half &amp; half for coffee.  Still, an all-around great stay and value.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded April 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2018</t>
+  </si>
+  <si>
+    <t>Pleasant, stylish, quiet rooms with basic, but ample amenities.  Very clean and new.  Convenient to gas and many restaurants.  Breakfast was just ok.  Could have been improved with more protein options and real half &amp; half for coffee.  Still, an all-around great stay and value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r586108774-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>586108774</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Not Your Typical LaQuinta</t>
+  </si>
+  <si>
+    <t>I will never stay at this location again.  Poor attitude of staff. Deadbolts inoperative. Mold in shower.  No fruit in breakfast area.  The beds were very comfortable. The new look is nice.  The service was not LaQuinta standard.  Please step it up a few notches.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r585734785-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>585734785</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>A good stop</t>
+  </si>
+  <si>
+    <t>This hotel was a good stop after a long driveIt seems to be a newer remodel that is well appointed.  Sheets and bedding were clean, bathroom clean and a standard La Quinta breakfast.They have plenty of parking and it’s well lit.My only concerns are 1. The internet was very slow and went down every ten minutes.  I lost hours of work time2. For a newer buildout the house keeping seems to be overlooking detail items. Would now be surprised to visit next year and find it going downhill3. When I called the front desk for help they never answered. I went down stairs and waited 15 min and never saw anyone. Just gave upPrice was good and worth stopping to sleepMoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was a good stop after a long driveIt seems to be a newer remodel that is well appointed.  Sheets and bedding were clean, bathroom clean and a standard La Quinta breakfast.They have plenty of parking and it’s well lit.My only concerns are 1. The internet was very slow and went down every ten minutes.  I lost hours of work time2. For a newer buildout the house keeping seems to be overlooking detail items. Would now be surprised to visit next year and find it going downhill3. When I called the front desk for help they never answered. I went down stairs and waited 15 min and never saw anyone. Just gave upPrice was good and worth stopping to sleepMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r585684363-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>585684363</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>La Quinta stay.</t>
+  </si>
+  <si>
+    <t>I always try to stay at LQ when ever I travel. I know what to expect as far as hospitality and clean rooms. Even without a reservation I am always treated well. Breakfast is OK but wish they had a little more variety but is as good as most.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r583858658-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>583858658</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Dog friendly and clean</t>
+  </si>
+  <si>
+    <t>Easy to access this property and is dog friendly.  Pool was clean and the staff was friendly and helpful. Best coffee I’ve had at a hotel, including Marriott and Hilton.  Food was very good and was prepared early so we could get driving early 5:30...even though sign says 6.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r583794330-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>583794330</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Loud, Loud, Loud</t>
+  </si>
+  <si>
+    <t>This hotel is located at the end of Carswell AFB runway.  You'll have loud jets taken off in the early evening.  It's close to the interstate and other attractions, but the jets will make you wonder if they're coming thru the building.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r581341136-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>581341136</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>Great hotel.</t>
+  </si>
+  <si>
+    <t>I have stayed here more than one time. It is close to the mall and near where I get my hair cut. Close to downtown Fort Worth. I will be staying there in the future because it is clean, staff are friendly and helpful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r580116896-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>580116896</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Nice but loud in the rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was clean. The room was very clean and spacious.  Breakfast was adequate.  My only complaint s that the walls must be very thin. We could clearly hear the guests in the adjoining rooms,talking, as well as hear their alarm in the morning. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r578675125-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>578675125</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>LQ...my fav</t>
+  </si>
+  <si>
+    <t>2nd time here.  Clean, friendly staff, great breakfast.  Easy access and lots around it.  Small, indoor pool with Jacuzzi.  Small snack bar at the front desk.  Great wifi.  You won't be disappointed staying here.  Highly recommend.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r557513378-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>557513378</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Great place but a little expensive</t>
+  </si>
+  <si>
+    <t>The rooms were beautiful and very very clean! The customer service was outstanding and quick. It was very quiet and had good WiFi and channels to watch. They also have free breakfast which was very satisfying MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded February 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2018</t>
+  </si>
+  <si>
+    <t>The rooms were beautiful and very very clean! The customer service was outstanding and quick. It was very quiet and had good WiFi and channels to watch. They also have free breakfast which was very satisfying More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r556235557-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>556235557</t>
+  </si>
+  <si>
+    <t>01/24/2018</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>I really like LaQuinta's, other than thin walls everything was nice and comfortable.  Our room was large and we are very happy that they allow pets. Could use some better directions for getting there but nice hotel good value for the money,MoreShow less</t>
+  </si>
+  <si>
+    <t>I really like LaQuinta's, other than thin walls everything was nice and comfortable.  Our room was large and we are very happy that they allow pets. Could use some better directions for getting there but nice hotel good value for the money,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r555338623-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>555338623</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Average stay</t>
+  </si>
+  <si>
+    <t>I've enjoyed LaQuinta Hotels since they came east (Louisiana) about 25 years ago.  I'm sorry I have to rate you poorly.  And it seems like pricing was way too high.  There was a better variety of breakfast food, but the eggs were cold and the bacon greasy.  I'll shop around during my next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've enjoyed LaQuinta Hotels since they came east (Louisiana) about 25 years ago.  I'm sorry I have to rate you poorly.  And it seems like pricing was way too high.  There was a better variety of breakfast food, but the eggs were cold and the bacon greasy.  I'll shop around during my next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r552379275-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>552379275</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>BEST STAY EVER</t>
+  </si>
+  <si>
+    <t>I was looking for a hotel that was reasonably priced, that would provide a comfortable bed, a clean room &amp; bathroom and a good breakfast, and La Quinta popped up. I remember staying at a La Quinta many, many, many years ago and how enjoyable it was for me, so I decided to try it again and I was extremely satisfied with everything that the hotel had to offer. Thanks for a PERFECT STAY!!!!!! My husband and I enjoyed ourselves IMMENSELY (this was my husband's first experience at La Quinta and he was very impressed) !!!! GREAT HOTEL FOR COUPLES!!!!! Looking forward to another GREAT STAY!!!!!! THANKS AGAIN!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was looking for a hotel that was reasonably priced, that would provide a comfortable bed, a clean room &amp; bathroom and a good breakfast, and La Quinta popped up. I remember staying at a La Quinta many, many, many years ago and how enjoyable it was for me, so I decided to try it again and I was extremely satisfied with everything that the hotel had to offer. Thanks for a PERFECT STAY!!!!!! My husband and I enjoyed ourselves IMMENSELY (this was my husband's first experience at La Quinta and he was very impressed) !!!! GREAT HOTEL FOR COUPLES!!!!! Looking forward to another GREAT STAY!!!!!! THANKS AGAIN!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r551674784-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>551674784</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Great Place, But Where Are The Towels?</t>
+  </si>
+  <si>
+    <t>This looks to be a fairly new establishment with a modern look. Guest will receive a hot breakfast, but it never seemed to be enough clean towels available. During our travel we experience plumbing issues that could not be repaired by maintenance during our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>This looks to be a fairly new establishment with a modern look. Guest will receive a hot breakfast, but it never seemed to be enough clean towels available. During our travel we experience plumbing issues that could not be repaired by maintenance during our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r550465464-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>550465464</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We had a very good experience at this hotel.  The staff was very courteous and professional. The room was very clean and spacious. I would highly recommend staying at this hotel. They are pet friendly. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>We had a very good experience at this hotel.  The staff was very courteous and professional. The room was very clean and spacious. I would highly recommend staying at this hotel. They are pet friendly. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r547410351-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>547410351</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>Four day visit back hime</t>
+  </si>
+  <si>
+    <t>We were a little disappointed with this La Quinta as we’ve stayed at many of their hotels.  The room was OK but we had problems with the bathroom.  Drain plug was jammed closed on arrival and toilet seat was loose and wouldn’t flush properly. After requesting repairs we came back to find it jammed open, the toilet seat fixed but still not flushing correctly.  We finally got the drain plug fixed but after four days, we couldn’t get the toilet to flush without three or more cycles of flushing.  Plus the breakfast was good every morning.  Do we won’t be staying at this La Quinta again.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded December 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2017</t>
+  </si>
+  <si>
+    <t>We were a little disappointed with this La Quinta as we’ve stayed at many of their hotels.  The room was OK but we had problems with the bathroom.  Drain plug was jammed closed on arrival and toilet seat was loose and wouldn’t flush properly. After requesting repairs we came back to find it jammed open, the toilet seat fixed but still not flushing correctly.  We finally got the drain plug fixed but after four days, we couldn’t get the toilet to flush without three or more cycles of flushing.  Plus the breakfast was good every morning.  Do we won’t be staying at this La Quinta again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r547126442-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>547126442</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Top notch customer service</t>
+  </si>
+  <si>
+    <t>The desk attendant was really accommodating and quick.  She got us checked in, even without a reservation, and on our way quickly.  The was pleasantly surprised by the recent renovation and cleanliness of the common spaces and the room. Breakfast was good too!MoreShow less</t>
+  </si>
+  <si>
+    <t>The desk attendant was really accommodating and quick.  She got us checked in, even without a reservation, and on our way quickly.  The was pleasantly surprised by the recent renovation and cleanliness of the common spaces and the room. Breakfast was good too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r546892029-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>546892029</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>Nice, clean hotel</t>
+  </si>
+  <si>
+    <t>I liked this hotel.  It was clean, modern and the breakfast was good.  It was nice to have an indoor pool where the kids could go swimming.  The beds were nice and comfortable.  The whole hotel was also very quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>I liked this hotel.  It was clean, modern and the breakfast was good.  It was nice to have an indoor pool where the kids could go swimming.  The beds were nice and comfortable.  The whole hotel was also very quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r546398013-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>546398013</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>Hotel for smokers</t>
+  </si>
+  <si>
+    <t>Unpleasant stay. First night was in pet friendly room with urine saturated carpet. Stench was terrible but didn't notice until we were in bed.  Changed rooms and next 2 nights woke up during the night and in the morning to strong smell of cigarette smoke. Disgusting. After notifying desk, smell was not noticeable in room except in the bathroom. Smoke free hotel-what a joke. Friendly supportive staff was saving grace; management not so much.  Canned responses to these reviews...looks like we dropped the ball...and not willing to really make sure you're satisfied while you're there. No more LaQuinta for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Unpleasant stay. First night was in pet friendly room with urine saturated carpet. Stench was terrible but didn't notice until we were in bed.  Changed rooms and next 2 nights woke up during the night and in the morning to strong smell of cigarette smoke. Disgusting. After notifying desk, smell was not noticeable in room except in the bathroom. Smoke free hotel-what a joke. Friendly supportive staff was saving grace; management not so much.  Canned responses to these reviews...looks like we dropped the ball...and not willing to really make sure you're satisfied while you're there. No more LaQuinta for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r526449151-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>526449151</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Ft Worth - LaQuinta</t>
+  </si>
+  <si>
+    <t>Kida frustrating when traveling away from home and you look forward to little things on the road.  I check into the La Quinta and I get a slow elevator, a tread mill out of order (I'm in training for a marathon), there was no TV guide on the TV so I did not know what channel was what (Monday Night Football), for my wake up call there was only one phone in the room (the one phone was not by the bed but by on the desk).  On top of that there was only 5 restaurants that delivered (3 Chinese and 2 Pizza ... hint do not order the Chinese).MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded December 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2017</t>
+  </si>
+  <si>
+    <t>Kida frustrating when traveling away from home and you look forward to little things on the road.  I check into the La Quinta and I get a slow elevator, a tread mill out of order (I'm in training for a marathon), there was no TV guide on the TV so I did not know what channel was what (Monday Night Football), for my wake up call there was only one phone in the room (the one phone was not by the bed but by on the desk).  On top of that there was only 5 restaurants that delivered (3 Chinese and 2 Pizza ... hint do not order the Chinese).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r522393363-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>522393363</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Hurricane Evacuation</t>
+  </si>
+  <si>
+    <t>Would not recommend anyone stay there as the management were very rude and unwilling to cooperate with the FEMA guidelines as advertised on FEMA website. The Assistant Manager was adamant we had to leave immediately, although we had broken no rules and had tried to make the best out of our evacuation from our home.  As long as billing was on my credit card, they were gracious, however, when they were told it became a FEMA situation we were treated with disdain.  Would not recommend this location to anyone traveling through Fort Worth! MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded September 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2017</t>
+  </si>
+  <si>
+    <t>Would not recommend anyone stay there as the management were very rude and unwilling to cooperate with the FEMA guidelines as advertised on FEMA website. The Assistant Manager was adamant we had to leave immediately, although we had broken no rules and had tried to make the best out of our evacuation from our home.  As long as billing was on my credit card, they were gracious, however, when they were told it became a FEMA situation we were treated with disdain.  Would not recommend this location to anyone traveling through Fort Worth! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r519465311-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>519465311</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded August 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r515461594-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>515461594</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Overall good hotel</t>
+  </si>
+  <si>
+    <t>My wife and I require handicapped accessible room. It was disturbing to discover that rooms are located at the extreme end of hallways requiring long walking for each of us. We entered the room to find that the ac was not on and the room was hot and humid, to the point that every surface, including  beds felt damp.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I require handicapped accessible room. It was disturbing to discover that rooms are located at the extreme end of hallways requiring long walking for each of us. We entered the room to find that the ac was not on and the room was hot and humid, to the point that every surface, including  beds felt damp.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r513937231-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>513937231</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>one night</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel only one night with my girlfriend. The room was pretty nice and it had an indoor pool and hot tub which wasn't bad. pretty cheap for what you get. Would stay here again if needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded August 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel only one night with my girlfriend. The room was pretty nice and it had an indoor pool and hot tub which wasn't bad. pretty cheap for what you get. Would stay here again if needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r510032976-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>510032976</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Very clean every day</t>
+  </si>
+  <si>
+    <t>I found this hotel to be close to the highway and was always clean.The room was done every day with no complaints. I never saw the carpets looking bad and there was only one issue I had and that was that the breakfast location was not opened up until a few minutes after 6 am every day. To be honest this breakfast it nothing that you have to wait for because it is as basic as they come. All in all a nice hotel to stay at.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>I found this hotel to be close to the highway and was always clean.The room was done every day with no complaints. I never saw the carpets looking bad and there was only one issue I had and that was that the breakfast location was not opened up until a few minutes after 6 am every day. To be honest this breakfast it nothing that you have to wait for because it is as basic as they come. All in all a nice hotel to stay at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r505648020-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>505648020</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Property Needs TLC</t>
+  </si>
+  <si>
+    <t>Navigated through cigarette smoke to enter property.  Hallway carpets in need of care.  No bath towels in our room (and no offer to bring them to us when notified).  Messy breakfast seating area.  View of the crusty motel next door from our room.  Not good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Navigated through cigarette smoke to enter property.  Hallway carpets in need of care.  No bath towels in our room (and no offer to bring them to us when notified).  Messy breakfast seating area.  View of the crusty motel next door from our room.  Not good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r502374624-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>502374624</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Museum visiting in Fort Worth</t>
+  </si>
+  <si>
+    <t>This hotel was clean and convenient to the cultural district.  It was also very close to the Naval Air Station and during the day the noise of jets taking off was very noticeable.  To me it is the sound of freedom but if you want to sleep during the day you would not be happy.  Very quiet at night though.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded July 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was clean and convenient to the cultural district.  It was also very close to the Naval Air Station and during the day the noise of jets taking off was very noticeable.  To me it is the sound of freedom but if you want to sleep during the day you would not be happy.  Very quiet at night though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r501966962-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>501966962</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>CLOSE TO FRIEND'S HOUSE</t>
+  </si>
+  <si>
+    <t>I stayed at the La Quinta Inn and Suites Fort Worth West I30 as it was close to my friend's house who I was visiting.  I usually stay at La Quinta as I travel with my small dog and they don't charge extra for pets.  The hotel was very clean and the beds were comfortable.  The only negative was that when I went down for breakfast a little after 7 there was gravy but no biscuits.  The breakfast room was kind of a mess.  I thought it kind of strange since they had just started serving breakfast at 6 and was continuing until 9.  When I checked out I mentioned to the desk clerk that the breakfast room needed some attention and that there were no biscuits. She just said, "what is it that you need?"  She handed me my receipt and said nothing else.  She didn't ask me how my stay was or thank me for staying.  This is very unusual as usually desk clerks are a lot nicer.  I asked her her name and she would not tell me.  Not sure if she was just starting her shift or ending her shift but she might think about getting in another line of work!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the La Quinta Inn and Suites Fort Worth West I30 as it was close to my friend's house who I was visiting.  I usually stay at La Quinta as I travel with my small dog and they don't charge extra for pets.  The hotel was very clean and the beds were comfortable.  The only negative was that when I went down for breakfast a little after 7 there was gravy but no biscuits.  The breakfast room was kind of a mess.  I thought it kind of strange since they had just started serving breakfast at 6 and was continuing until 9.  When I checked out I mentioned to the desk clerk that the breakfast room needed some attention and that there were no biscuits. She just said, "what is it that you need?"  She handed me my receipt and said nothing else.  She didn't ask me how my stay was or thank me for staying.  This is very unusual as usually desk clerks are a lot nicer.  I asked her her name and she would not tell me.  Not sure if she was just starting her shift or ending her shift but she might think about getting in another line of work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r500401543-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>500401543</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>The room was clean and well appointed with a fridge, microwave, coffee pot and plenty of towels. The bed was extremely comfortable, with tons of pillows! The employees were gracious and very helpful. I really enjoyed my stay and will come back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>The room was clean and well appointed with a fridge, microwave, coffee pot and plenty of towels. The bed was extremely comfortable, with tons of pillows! The employees were gracious and very helpful. I really enjoyed my stay and will come back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r499762065-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>499762065</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Home away from home.</t>
+  </si>
+  <si>
+    <t>We stay at this property twice a year for horseshows.  The staff is friendly and welcoming.  I would definitely recommend this location for business or pleasure.  The breakfast was great, perfect location.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded July 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2017</t>
+  </si>
+  <si>
+    <t>We stay at this property twice a year for horseshows.  The staff is friendly and welcoming.  I would definitely recommend this location for business or pleasure.  The breakfast was great, perfect location.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r496995610-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>496995610</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exceptional customer service </t>
+  </si>
+  <si>
+    <t>Stayed there 3 nights. After my stay they contacted me that I left my reading glasses in my room. They were able to ship them to my home in Chicago. I was very impressed how they went out of their way to help me. The staff was so friendly and helpful!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Stayed there 3 nights. After my stay they contacted me that I left my reading glasses in my room. They were able to ship them to my home in Chicago. I was very impressed how they went out of their way to help me. The staff was so friendly and helpful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r496408940-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>496408940</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Good, clean place to stay</t>
+  </si>
+  <si>
+    <t>This is a typical La Quinta.  Well maintained, clean, roomy.  Easy to get in and out of.  Convenient for where I need to go for work.  Sometimes they offer cookies in the afternoon which are great.  Didn't get them this trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>This is a typical La Quinta.  Well maintained, clean, roomy.  Easy to get in and out of.  Convenient for where I need to go for work.  Sometimes they offer cookies in the afternoon which are great.  Didn't get them this trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r495865567-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>495865567</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Meh!</t>
+  </si>
+  <si>
+    <t>I'll keep it short and sweet.  If you are looking for an easy to access location, free breakfast and relatively inexpensive stay, this place may be for you.  Complaints:  1.  Paper thin walls, could hear our neighbor coughing all night.2. Black out curtains didn't work too well.  Parking lot lights lit up room way too much.3. Shady area - strip joint in view right outside our window, and some guy in the parking lot cat-called my wife. 4. Coffee at free breakfast is Nescafé instant.Probably won't be returning.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2017</t>
+  </si>
+  <si>
+    <t>I'll keep it short and sweet.  If you are looking for an easy to access location, free breakfast and relatively inexpensive stay, this place may be for you.  Complaints:  1.  Paper thin walls, could hear our neighbor coughing all night.2. Black out curtains didn't work too well.  Parking lot lights lit up room way too much.3. Shady area - strip joint in view right outside our window, and some guy in the parking lot cat-called my wife. 4. Coffee at free breakfast is Nescafé instant.Probably won't be returning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r495298460-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>495298460</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Amazing location</t>
+  </si>
+  <si>
+    <t>Everything was great, amazing stay, &amp; great location in the Fort Worth area. There are other hotels near the area, &amp; I always stay at this location. Best price, easy check in &amp; easy check out. I will always come back to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Everything was great, amazing stay, &amp; great location in the Fort Worth area. There are other hotels near the area, &amp; I always stay at this location. Best price, easy check in &amp; easy check out. I will always come back to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r491831327-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>491831327</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Insect Bites!!!!</t>
+  </si>
+  <si>
+    <t>My family and I arrived to the hotel only to discover that the double bed room we booked was not available so we had to settle for a 1 bed room with a sofa bed and an extra cot that was extremely worn out but when we got to the room we had to switch rooms because the sofa bed was stuck, switched to another room that smelled like feet and was very stuffy the most horrible part was getting bite by fleas we all had little red itchy bumps on our feet and ankles and not to mention we had a 3 year old and 2 month old in the room I did not know that this hotel was pet friendly until later that night when we seen a dog in the lobby even if pets are allowed guest should not be getting bite by fleas!!!!!!!!!!! UNEXCEPTABLE!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2017</t>
+  </si>
+  <si>
+    <t>My family and I arrived to the hotel only to discover that the double bed room we booked was not available so we had to settle for a 1 bed room with a sofa bed and an extra cot that was extremely worn out but when we got to the room we had to switch rooms because the sofa bed was stuck, switched to another room that smelled like feet and was very stuffy the most horrible part was getting bite by fleas we all had little red itchy bumps on our feet and ankles and not to mention we had a 3 year old and 2 month old in the room I did not know that this hotel was pet friendly until later that night when we seen a dog in the lobby even if pets are allowed guest should not be getting bite by fleas!!!!!!!!!!! UNEXCEPTABLE!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r491145279-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>491145279</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Unprofessional</t>
+  </si>
+  <si>
+    <t>Reservation was to be for an ADA Wheelchair room with roll in shower.  They did not have that room.  We took a room with a tub and luckily brought a shower chair.  Harder for dad but would make it work.  The next day the room wasn't clean.  I had asked in the morning to have toilet seat fixed.  Maintenance confirm he had fix but it wasn't.  Housekeeping, maintenance and Management were all gone at 4 p.m.  Manager was called and came to motel wanted to find us another motel.  Told him I didn't want to move it was to hard on dad who is a 79 year old veteran that is a double amputee(missing both legs above the knee) with limited use of arms.  Wanted me to sign paper if we stayed that would get no refund.  I never asked for one.  Final result we were kicked out.  All I wanted was to make manager aware and get toilet fixed.  Manager did state it was about the money and if I complained to corporate it would go against him.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Reservation was to be for an ADA Wheelchair room with roll in shower.  They did not have that room.  We took a room with a tub and luckily brought a shower chair.  Harder for dad but would make it work.  The next day the room wasn't clean.  I had asked in the morning to have toilet seat fixed.  Maintenance confirm he had fix but it wasn't.  Housekeeping, maintenance and Management were all gone at 4 p.m.  Manager was called and came to motel wanted to find us another motel.  Told him I didn't want to move it was to hard on dad who is a 79 year old veteran that is a double amputee(missing both legs above the knee) with limited use of arms.  Wanted me to sign paper if we stayed that would get no refund.  I never asked for one.  Final result we were kicked out.  All I wanted was to make manager aware and get toilet fixed.  Manager did state it was about the money and if I complained to corporate it would go against him.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r490340927-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>490340927</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Clean, Modern, Convenient, and Pet Friendly</t>
+  </si>
+  <si>
+    <t>Friendly, Clean, Modern, Convenient to intestate, restaurants and our areas of interest. This was our first stay at this hotel and plan to stay here again on our next visit to Fort Worth as we come here several times a year. Check in was quick and easy, our room was up to date and very clean only issue was the toliet as it took several flushes to clear. Reported this to the desk an reception stated it would be fixed. Nice dog area in back with bags and thrash can. Breakfast was standard for La Quinta. Plenty of free parking available.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Friendly, Clean, Modern, Convenient to intestate, restaurants and our areas of interest. This was our first stay at this hotel and plan to stay here again on our next visit to Fort Worth as we come here several times a year. Check in was quick and easy, our room was up to date and very clean only issue was the toliet as it took several flushes to clear. Reported this to the desk an reception stated it would be fixed. Nice dog area in back with bags and thrash can. Breakfast was standard for La Quinta. Plenty of free parking available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r491658296-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>491658296</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Best Place to Stay</t>
+  </si>
+  <si>
+    <t>The hotel staff was amazing, very helpful and very friendly! The hotel room was super clean and the beds were comfy! The BEST thing is the AC cranked down low! The breakfast was ready early in the morning and was very tasty!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2017</t>
+  </si>
+  <si>
+    <t>The hotel staff was amazing, very helpful and very friendly! The hotel room was super clean and the beds were comfy! The BEST thing is the AC cranked down low! The breakfast was ready early in the morning and was very tasty!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r491658148-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>491658148</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Very accommodating and friendly staff!</t>
+  </si>
+  <si>
+    <t>We had a medical situation and had to be in Fort Worth, but we have 2 dogs, and didn't want to board them somewhere. Actually the night before, the boarder lost one of our dogs so we called and asked for a special request to check in 3.5 hours early so we could go to our medical appointment and leave the dogs in our room. They were very helpful! We arrived the next day at 1130 AM and unloaded our bags and dogs, went to our appointment and had a worry free stay.  The hotel itself is very nice and new.  There is decent green space for pets and we had no problems finding a place for them.  Overall, we were very pleased and will be staying here every time we need to stay in Ft Worth.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a medical situation and had to be in Fort Worth, but we have 2 dogs, and didn't want to board them somewhere. Actually the night before, the boarder lost one of our dogs so we called and asked for a special request to check in 3.5 hours early so we could go to our medical appointment and leave the dogs in our room. They were very helpful! We arrived the next day at 1130 AM and unloaded our bags and dogs, went to our appointment and had a worry free stay.  The hotel itself is very nice and new.  There is decent green space for pets and we had no problems finding a place for them.  Overall, we were very pleased and will be staying here every time we need to stay in Ft Worth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r491658183-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>491658183</t>
+  </si>
+  <si>
+    <t>Horrible Toilet Pressure</t>
+  </si>
+  <si>
+    <t>No one was around when I arrived to check-in. The individual who checked me in was sitting in the lounge area and did not great me immediately. I did not not this individual worked at the hotel. They were not wearing anything indications they worked for La Quinta. The room decor was very nice and appealing. The room and the bathroom were very clean. It was cool outside when arrived and the heating worked well in the room. The toilet had horrible pressure. It was extremely loud every time it was flushed and it had to be flushed several times each time and every time. The insulation needs to be improved, all hallway noise could be heard. The pool is quite small and enclosed, feels claustrophobic.MoreShow less</t>
+  </si>
+  <si>
+    <t>No one was around when I arrived to check-in. The individual who checked me in was sitting in the lounge area and did not great me immediately. I did not not this individual worked at the hotel. They were not wearing anything indications they worked for La Quinta. The room decor was very nice and appealing. The room and the bathroom were very clean. It was cool outside when arrived and the heating worked well in the room. The toilet had horrible pressure. It was extremely loud every time it was flushed and it had to be flushed several times each time and every time. The insulation needs to be improved, all hallway noise could be heard. The pool is quite small and enclosed, feels claustrophobic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r477496567-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>477496567</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>The hotel was just as pictured, large and modern. Room was very spacious. The hotel did have an odor in the hallway the night I arrived. I travel with my dog so I stay at a lot of LaQuinta Inn's and typically don't notice any odor. Unsure if this was a pet odor or coming from the gym, but the next morning it smelled fresh and clean. Staff was nice and breakfast was hot. Would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded April 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was just as pictured, large and modern. Room was very spacious. The hotel did have an odor in the hallway the night I arrived. I travel with my dog so I stay at a lot of LaQuinta Inn's and typically don't notice any odor. Unsure if this was a pet odor or coming from the gym, but the next morning it smelled fresh and clean. Staff was nice and breakfast was hot. Would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r491658054-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>491658054</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Okay stay</t>
+  </si>
+  <si>
+    <t>It is a fairly new hotel and most of the staff is very good but there are some that leave a little to be desired. The rooms are nice, the pool is indoor but very small. the breakfast is acceptable, nothing to write home about, but filling.  This is my third visit there and I am always satisfied.MoreShow less</t>
+  </si>
+  <si>
+    <t>It is a fairly new hotel and most of the staff is very good but there are some that leave a little to be desired. The rooms are nice, the pool is indoor but very small. the breakfast is acceptable, nothing to write home about, but filling.  This is my third visit there and I am always satisfied.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r491659330-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>491659330</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>dirty and poor quality</t>
+  </si>
+  <si>
+    <t>Having stayed in this hotel April 2016 I arranged the same time April 2017 but the hotel had gone down hill with towel showing obvious wear like one might use in a  car wash.  The entrance and elevator were obviously dirty and room needed repair. For the price I was dissatisfied.MoreShow less</t>
+  </si>
+  <si>
+    <t>Having stayed in this hotel April 2016 I arranged the same time April 2017 but the hotel had gone down hill with towel showing obvious wear like one might use in a  car wash.  The entrance and elevator were obviously dirty and room needed repair. For the price I was dissatisfied.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r491659394-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>491659394</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>This La Quinta location took very good care of us, after we were displaced from our home due to electrical repairs. It was also our wedding anniversary, so they upgraded our room at no extra cost. Very nice and modern, nice upgrades and commodities.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>This La Quinta location took very good care of us, after we were displaced from our home due to electrical repairs. It was also our wedding anniversary, so they upgraded our room at no extra cost. Very nice and modern, nice upgrades and commodities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r491658895-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>491658895</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>Quality Stay</t>
+  </si>
+  <si>
+    <t>Great clean facility, the rooms were very well kept and good condition.  Shower didn't have a lot of pressure, but did the job. Hotel staff was very friendly and personable. Breakfast had many options and lots of room to sit around with family. I'd recommend this hotel for future staysMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Great clean facility, the rooms were very well kept and good condition.  Shower didn't have a lot of pressure, but did the job. Hotel staff was very friendly and personable. Breakfast had many options and lots of room to sit around with family. I'd recommend this hotel for future staysMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r446393891-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>446393891</t>
+  </si>
+  <si>
+    <t>12/23/2016</t>
+  </si>
+  <si>
+    <t>Almost can say good but price is so expensive</t>
+  </si>
+  <si>
+    <t>We stayed on here. Not good location Not good recepcion Not good breakfast. Not good price. But good rooms...........I did not like the way guests get room rates.The receptionists were not fully informed.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>We stayed on here. Not good location Not good recepcion Not good breakfast. Not good price. But good rooms...........I did not like the way guests get room rates.The receptionists were not fully informed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r445631870-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>445631870</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Better hope nothing goes wrong</t>
+  </si>
+  <si>
+    <t>I had a nightmare night here due to a party going on in the next room. Staff would/could not do anything to help. Management will not respond to my repeated requests for a refund. But on the good side, the afternoon cookies are tasty.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>I had a nightmare night here due to a party going on in the next room. Staff would/could not do anything to help. Management will not respond to my repeated requests for a refund. But on the good side, the afternoon cookies are tasty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r443804501-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>443804501</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel, but thin walls</t>
+  </si>
+  <si>
+    <t>First the positives for this hotel - it was very well situated for what we wanted to do in Ft Worth (near museums); it is only 2 years old, so still in very good shape; and the mattress was firm and to our liking. Here are the negatives - the walls are paper thin! We could hear every word our neighbor said and follow the tv show he was watching. During the night, he snored and needless to say I picked up on other sounds. The bathroom isn't laid out well. The sink is set in about 6" from the edge, so I found it uncomfortable to use. The reach for the toilet paper requires long arms which I don't have. I won't stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>First the positives for this hotel - it was very well situated for what we wanted to do in Ft Worth (near museums); it is only 2 years old, so still in very good shape; and the mattress was firm and to our liking. Here are the negatives - the walls are paper thin! We could hear every word our neighbor said and follow the tv show he was watching. During the night, he snored and needless to say I picked up on other sounds. The bathroom isn't laid out well. The sink is set in about 6" from the edge, so I found it uncomfortable to use. The reach for the toilet paper requires long arms which I don't have. I won't stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r432281290-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>432281290</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>Brand New</t>
+  </si>
+  <si>
+    <t>Very clean, reasonable for the area, somewhat easy to find, places to eat nearby, reasonably close to the zoo and other activities.  Our room had two queen beds and was larger than most.  I just don't understand when a room is made so it will sleep 4 people and there are only towels and wash clothes for 3.  This room did have 4 bath towels but only 3 face and hand towels.  It was enough for us and I am sure I could ask for more but why should I have to ask.  The frig was larger than most.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded April 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2017</t>
+  </si>
+  <si>
+    <t>Very clean, reasonable for the area, somewhat easy to find, places to eat nearby, reasonably close to the zoo and other activities.  Our room had two queen beds and was larger than most.  I just don't understand when a room is made so it will sleep 4 people and there are only towels and wash clothes for 3.  This room did have 4 bath towels but only 3 face and hand towels.  It was enough for us and I am sure I could ask for more but why should I have to ask.  The frig was larger than most.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r421183349-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>421183349</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>Clean Quite &amp; Great Customer Service</t>
+  </si>
+  <si>
+    <t>I have stayed in a number of Hotels and La Quinta.  Great service, Clean, Quite Location.  Would return to this location next time I am in Ft Worth.  Owner was pleasant at all time.  Provided matching rate on room price when I had to extend my stay which was appreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>I have stayed in a number of Hotels and La Quinta.  Great service, Clean, Quite Location.  Would return to this location next time I am in Ft Worth.  Owner was pleasant at all time.  Provided matching rate on room price when I had to extend my stay which was appreciated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r420179207-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>420179207</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>Average hotel with loud guests, I'll go else next visit</t>
+  </si>
+  <si>
+    <t>I really wanted to like this hotel because I frequently visit Fort Worth. The first impression was very good, the lobby is sleek and modern and the exterior is clean and well kept. The room was very clean and looked to have been recently refurbished. However, we suffered through two hours of on-and-off satellite reception with no help from the main desk. Finally we gave up and went to sleep after trying to watch a football game on ESPN. We awoke to very loud guests above us at 5 a.m. The sound deadening at this hotel is poor. For what I paid for this hotel stay, I'll look at other hotels again before returning to La Quinta.MoreShow less</t>
+  </si>
+  <si>
+    <t>I really wanted to like this hotel because I frequently visit Fort Worth. The first impression was very good, the lobby is sleek and modern and the exterior is clean and well kept. The room was very clean and looked to have been recently refurbished. However, we suffered through two hours of on-and-off satellite reception with no help from the main desk. Finally we gave up and went to sleep after trying to watch a football game on ESPN. We awoke to very loud guests above us at 5 a.m. The sound deadening at this hotel is poor. For what I paid for this hotel stay, I'll look at other hotels again before returning to La Quinta.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r413260349-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>413260349</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Already happy</t>
+  </si>
+  <si>
+    <t>I was trying to make complicated reservations for several people coming to town from many different directions.  Alicia was so helpful.  She went above and beyond to make sure everything is in order for when we all arrive.  I know it will be a very happy and successful trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I was trying to make complicated reservations for several people coming to town from many different directions.  Alicia was so helpful.  She went above and beyond to make sure everything is in order for when we all arrive.  I know it will be a very happy and successful trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r403789008-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>403789008</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Good Stay at New and Improved La Quinta</t>
+  </si>
+  <si>
+    <t>We have stayed often at La Quintas for economical family travel. The New and Improved La Quinta was definitely a step up! Everything is bigger and better. We saw it when we walked in the door. The lobby area and breakfast area are spacious, open, and inviting. The rooms are larger as well. We also liked the indoor swimming pool. It's just too hot in August to swim outside. :-)  The A/C was great! One little thing that showed attention to detail was with the curtains over the A/C. They came down to just over the top exactly where they should be. Too often, the curtains cover the A/C vents and become a big bother. But here, they were exactly right.The location is great, only a few minutes away from downtown, W. 7th Street, the Museum District, and the Stockyards at a bargain price.The real test of a lodging place is when something goes wrong. Our grandson became sick in the middle of the night requiring a complete change of linens. Christina Flores was on duty and was quick and helpful in getting us fresh linens. I made a couple of trips to the desk and she got what we needed without delay. We are grateful to her and the other staff for their kind assistance when we needed it.  Thanks y'all!Oh. And our grandson is fine today. Maybe just a little too much fun for him.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded April 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2017</t>
+  </si>
+  <si>
+    <t>We have stayed often at La Quintas for economical family travel. The New and Improved La Quinta was definitely a step up! Everything is bigger and better. We saw it when we walked in the door. The lobby area and breakfast area are spacious, open, and inviting. The rooms are larger as well. We also liked the indoor swimming pool. It's just too hot in August to swim outside. :-)  The A/C was great! One little thing that showed attention to detail was with the curtains over the A/C. They came down to just over the top exactly where they should be. Too often, the curtains cover the A/C vents and become a big bother. But here, they were exactly right.The location is great, only a few minutes away from downtown, W. 7th Street, the Museum District, and the Stockyards at a bargain price.The real test of a lodging place is when something goes wrong. Our grandson became sick in the middle of the night requiring a complete change of linens. Christina Flores was on duty and was quick and helpful in getting us fresh linens. I made a couple of trips to the desk and she got what we needed without delay. We are grateful to her and the other staff for their kind assistance when we needed it.  Thanks y'all!Oh. And our grandson is fine today. Maybe just a little too much fun for him.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r401033328-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>401033328</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Right off Hwy 20 in west Ft Worth. A new and clean location that is well lit and accepts pets. Sign up for LaQuinta Rewards to accumulate nights for a free night, free wifi and breakfast. They accept AARP for additional discounts! Not far from Camp Bowie dining, located in the Ridgmar Mall area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Right off Hwy 20 in west Ft Worth. A new and clean location that is well lit and accepts pets. Sign up for LaQuinta Rewards to accumulate nights for a free night, free wifi and breakfast. They accept AARP for additional discounts! Not far from Camp Bowie dining, located in the Ridgmar Mall area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r390070251-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>390070251</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Will Not Return</t>
+  </si>
+  <si>
+    <t>I booked a night to get away from the stresses of home and to get work done but that was not the case. Check in way too long after signing so many papers, I got to my room only to find a dirty floor, hair in the corners of the room, dirty sheets and torn carpet. I thought this was new hotel? I didn't bother to call as I was only there to do work. Around 11:10pm, the fire alarm goes off. I understand incidents happen but after an 1 hour of it going on, clearly no one knew how to operate the system. I call the front desk, no answer. I pack my bags to check out and I stand at the desk for 15mins and no one shows up So I left. I call back a day later to talk to the GM, she wasn't there and was told that wouldn't be there until the weekend. What kind of manager does that? GMs should be at the property at the minimum during the weekdays! The staff is rude and the lady I spoke with on the phone was rude. I finally had to call consumer relations with La Quinta and FINALLY I got an email. The management promised a refund and after two attempts I still have not received my refund. $130 for 4 hours of nonsense in a room that I wasn't able to enjoy. Way to...I booked a night to get away from the stresses of home and to get work done but that was not the case. Check in way too long after signing so many papers, I got to my room only to find a dirty floor, hair in the corners of the room, dirty sheets and torn carpet. I thought this was new hotel? I didn't bother to call as I was only there to do work. Around 11:10pm, the fire alarm goes off. I understand incidents happen but after an 1 hour of it going on, clearly no one knew how to operate the system. I call the front desk, no answer. I pack my bags to check out and I stand at the desk for 15mins and no one shows up So I left. I call back a day later to talk to the GM, she wasn't there and was told that wouldn't be there until the weekend. What kind of manager does that? GMs should be at the property at the minimum during the weekdays! The staff is rude and the lady I spoke with on the phone was rude. I finally had to call consumer relations with La Quinta and FINALLY I got an email. The management promised a refund and after two attempts I still have not received my refund. $130 for 4 hours of nonsense in a room that I wasn't able to enjoy. Way to go, you surely lost a guest for life.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I booked a night to get away from the stresses of home and to get work done but that was not the case. Check in way too long after signing so many papers, I got to my room only to find a dirty floor, hair in the corners of the room, dirty sheets and torn carpet. I thought this was new hotel? I didn't bother to call as I was only there to do work. Around 11:10pm, the fire alarm goes off. I understand incidents happen but after an 1 hour of it going on, clearly no one knew how to operate the system. I call the front desk, no answer. I pack my bags to check out and I stand at the desk for 15mins and no one shows up So I left. I call back a day later to talk to the GM, she wasn't there and was told that wouldn't be there until the weekend. What kind of manager does that? GMs should be at the property at the minimum during the weekdays! The staff is rude and the lady I spoke with on the phone was rude. I finally had to call consumer relations with La Quinta and FINALLY I got an email. The management promised a refund and after two attempts I still have not received my refund. $130 for 4 hours of nonsense in a room that I wasn't able to enjoy. Way to...I booked a night to get away from the stresses of home and to get work done but that was not the case. Check in way too long after signing so many papers, I got to my room only to find a dirty floor, hair in the corners of the room, dirty sheets and torn carpet. I thought this was new hotel? I didn't bother to call as I was only there to do work. Around 11:10pm, the fire alarm goes off. I understand incidents happen but after an 1 hour of it going on, clearly no one knew how to operate the system. I call the front desk, no answer. I pack my bags to check out and I stand at the desk for 15mins and no one shows up So I left. I call back a day later to talk to the GM, she wasn't there and was told that wouldn't be there until the weekend. What kind of manager does that? GMs should be at the property at the minimum during the weekdays! The staff is rude and the lady I spoke with on the phone was rude. I finally had to call consumer relations with La Quinta and FINALLY I got an email. The management promised a refund and after two attempts I still have not received my refund. $130 for 4 hours of nonsense in a room that I wasn't able to enjoy. Way to go, you surely lost a guest for life.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r386797388-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>386797388</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and convenient stay</t>
+  </si>
+  <si>
+    <t>The staff is always pleasant and rooms are clean and comfortable.  Many eating places nearby and close to Fort Worth but yet just enough outside the busy streets and crowds.  Parking is a little strange.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Manisha V, General Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2016</t>
+  </si>
+  <si>
+    <t>The staff is always pleasant and rooms are clean and comfortable.  Many eating places nearby and close to Fort Worth but yet just enough outside the busy streets and crowds.  Parking is a little strange.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r384272048-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>384272048</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>Not clean</t>
+  </si>
+  <si>
+    <t>The hotel appears nice from a distance, however there are things to be aware of before booking here. The lobby, hallways etc did not appear to be vacuumed any time recently, there were stains in the carpet. This hotel was built not all that long ago, which made all of this even more surprising. The drain in the tub was broken, I hate to see how it will look after it has been opened a few years. We will not be staying here again  any time soon. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>The hotel appears nice from a distance, however there are things to be aware of before booking here. The lobby, hallways etc did not appear to be vacuumed any time recently, there were stains in the carpet. This hotel was built not all that long ago, which made all of this even more surprising. The drain in the tub was broken, I hate to see how it will look after it has been opened a few years. We will not be staying here again  any time soon. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r371423783-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>371423783</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great value </t>
+  </si>
+  <si>
+    <t>I booked this hotel through Hotwire.com for $64 plus tax, so I have to be honest I really wasn't expecting much at all.Totally surprised, hotel is only 2 years old. Really nice modern decor in shades of black, gray, white and lime green.Rooms - a good size, nicely appointed. Bed I felt was very much on the hard side but I guess that's down to personal choice. The bathrooms had a nice large walk in shower. Towels were paper thin and on the rough side but for the money not bad.Breakfast was as you would expect, the usual hotel free breakfast standard Great location right of I30 and a short 15minute commute into Fort WorthNice clean modern hotel, I wouldn't hesitate to stay here again MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel through Hotwire.com for $64 plus tax, so I have to be honest I really wasn't expecting much at all.Totally surprised, hotel is only 2 years old. Really nice modern decor in shades of black, gray, white and lime green.Rooms - a good size, nicely appointed. Bed I felt was very much on the hard side but I guess that's down to personal choice. The bathrooms had a nice large walk in shower. Towels were paper thin and on the rough side but for the money not bad.Breakfast was as you would expect, the usual hotel free breakfast standard Great location right of I30 and a short 15minute commute into Fort WorthNice clean modern hotel, I wouldn't hesitate to stay here again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r366995594-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>366995594</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>Contemporary La Quinta</t>
+  </si>
+  <si>
+    <t>Stayed at the new La Quinta in west Fort Worth while up for the Texas vs. TCU football game. Completely different than any La Quinta I've ever stayed in and I'm a pretty loyal La Quinta customer (because they are so pet friendly.)This is the most uniquet, most contemporary La Quinta I've ever seen or stayed in.Rooms were extra spacious - being new everything was "fresh" - the breakfast was good with a nice selection of breakfast foods, more like what you'd find at a Residence Inn.  Employees were nice - I have nothing bad to say - I'll be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Stayed at the new La Quinta in west Fort Worth while up for the Texas vs. TCU football game. Completely different than any La Quinta I've ever stayed in and I'm a pretty loyal La Quinta customer (because they are so pet friendly.)This is the most uniquet, most contemporary La Quinta I've ever seen or stayed in.Rooms were extra spacious - being new everything was "fresh" - the breakfast was good with a nice selection of breakfast foods, more like what you'd find at a Residence Inn.  Employees were nice - I have nothing bad to say - I'll be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r362040102-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>362040102</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Great staff, excellent stay. Very accommodating and close to all my business venues Convenient to major highways Wonderful place to stay!  I highly recommend this hotel clean and very quite Enjoyed staying here overallMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Great staff, excellent stay. Very accommodating and close to all my business venues Convenient to major highways Wonderful place to stay!  I highly recommend this hotel clean and very quite Enjoyed staying here overallMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r361032288-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>361032288</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel!  Great Value!</t>
+  </si>
+  <si>
+    <t>Drove up from Chicago with our two teenaged girls.  Booked a king room with an attached two double bed room, so we could all have a little privacy but be close to the girls.  The hotel was super clean and modern.  The rooms were large and comfortable, and the hotel was super quiet.  The staff was professional, friendly and incredibly helpful.  We stayed for 4 nights.  The location was convenient to downtown Ft. Worth, Sundance Square, the Stockyards, Zoo, etc.  Breakfast was good and had a nice, though small indoor pool and Jacuzzi.  Great value and perfect location for us as we did not want to be right downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>Drove up from Chicago with our two teenaged girls.  Booked a king room with an attached two double bed room, so we could all have a little privacy but be close to the girls.  The hotel was super clean and modern.  The rooms were large and comfortable, and the hotel was super quiet.  The staff was professional, friendly and incredibly helpful.  We stayed for 4 nights.  The location was convenient to downtown Ft. Worth, Sundance Square, the Stockyards, Zoo, etc.  Breakfast was good and had a nice, though small indoor pool and Jacuzzi.  Great value and perfect location for us as we did not want to be right downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r357265454-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>357265454</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Slamming doors</t>
+  </si>
+  <si>
+    <t>The front desk Mgr was great and she worked very hard and was polite. Something needs to be done so the room doors don't slam close. The room walls shake when this happens and affects overall stay. Water pressure in shower too low.MoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk Mgr was great and she worked very hard and was polite. Something needs to be done so the room doors don't slam close. The room walls shake when this happens and affects overall stay. Water pressure in shower too low.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r353941977-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>353941977</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>New, Clean and Quiet</t>
+  </si>
+  <si>
+    <t>We stayed here for one night and it was great, the hotel even smelled new, maybe it is I don't know but it was clean and smelled nice. The breakfast area was nice and clean too food was good. I have no complaints with the actual hotel. The drunk people in the room two rooms down... well that is another story. Going back in a few weeks and will stay in the same hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for one night and it was great, the hotel even smelled new, maybe it is I don't know but it was clean and smelled nice. The breakfast area was nice and clean too food was good. I have no complaints with the actual hotel. The drunk people in the room two rooms down... well that is another story. Going back in a few weeks and will stay in the same hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r350803325-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>350803325</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tired </t>
+  </si>
+  <si>
+    <t>Dog barking at night in one room and TV so loud in another had to wear ear plugs to sleep my room was in between and this was at 1 a.m. never again, $195 for 2 nights definitely not worth it! I want be staying again MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Dog barking at night in one room and TV so loud in another had to wear ear plugs to sleep my room was in between and this was at 1 a.m. never again, $195 for 2 nights definitely not worth it! I want be staying again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r340534978-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>340534978</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager Margaret </t>
+  </si>
+  <si>
+    <t>Great, clean rooms! Awesome customer service. The breakfast was wonderful. The rooms contain all basic necessities. Microwave, coffee maker, refrigerator, etc. probably one of the best stays I've ever had. I will definitely recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Great, clean rooms! Awesome customer service. The breakfast was wonderful. The rooms contain all basic necessities. Microwave, coffee maker, refrigerator, etc. probably one of the best stays I've ever had. I will definitely recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r340533517-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>340533517</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Great hotel and would be my first choice! Service was great. I have no complaints about anything. Food was good and ready bright and early. Rooms were perfect. Very clean and nice hotel compared to the competitors. When I visit Fort Worth I will definitely stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great hotel and would be my first choice! Service was great. I have no complaints about anything. Food was good and ready bright and early. Rooms were perfect. Very clean and nice hotel compared to the competitors. When I visit Fort Worth I will definitely stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r334877160-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>334877160</t>
+  </si>
+  <si>
+    <t>12/25/2015</t>
+  </si>
+  <si>
+    <t>Great stay..will go again..!</t>
+  </si>
+  <si>
+    <t>Nice room. Every basic things are available in room like microwave, fridge, Coffee maker. Good bed. Had a very pleasant stay. Breakfast is good and hot. Great room service. Front Desks were helpful, always ready to help.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Nice room. Every basic things are available in room like microwave, fridge, Coffee maker. Good bed. Had a very pleasant stay. Breakfast is good and hot. Great room service. Front Desks were helpful, always ready to help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r334595076-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>334595076</t>
+  </si>
+  <si>
+    <t>12/23/2015</t>
+  </si>
+  <si>
+    <t>Clean &amp; spacious!</t>
+  </si>
+  <si>
+    <t>We travel with our pet chihuahua &amp; love the warm acceptance we receive. Our King room was clean &amp; spacious. The bed was so comfy &amp; room was attractive.  Thank for the great stay, we will be back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We travel with our pet chihuahua &amp; love the warm acceptance we receive. Our King room was clean &amp; spacious. The bed was so comfy &amp; room was attractive.  Thank for the great stay, we will be back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r331788289-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>331788289</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kudos </t>
+  </si>
+  <si>
+    <t>I travel all over the state and I have never stayed anywhere where they know me by name except here at La Quinta on Calmont. Alicia, at the front desk is awesome!  She always greets me by my first name with a smile. My room is clean and comfortable, coffee is excellent and the gym is top of the line. My plans are to stay here anytime I'm in Fort Worth. MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel all over the state and I have never stayed anywhere where they know me by name except here at La Quinta on Calmont. Alicia, at the front desk is awesome!  She always greets me by my first name with a smile. My room is clean and comfortable, coffee is excellent and the gym is top of the line. My plans are to stay here anytime I'm in Fort Worth. More</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r331051138-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>331051138</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>Sorry, cannot recommend</t>
+  </si>
+  <si>
+    <t>We were visiting family over Thanksgiving in Ft. Worth. We chose this location due to good reviews and proximity to our son's home. During our stay Ft. Worth was receiving downpours of rain. Unfortunately, this greatly affected our 3-night stay at this La Quinta.
+The hotel appears new and fresh from the exterior. We requested a ground-floor room due to ease of walking our dog, who always travels with us. I'm a La Quinta Elite rewards member (25+ nights/year), so I am VERY familiar with this hotel chain. I was not given the standard welcome amenity (bottled water and a snack) and, in fact, the entire stay was far below La Quinta standards.
+The double queen room was large and comfortable. There was a large open area near the exterior window which easily could have accommodated a sofa or loveseat. Instead there was one small chair. I asked for one extra luggage rack (is that SUCH an odd request?) and was told there wasn't one available and the front desk clerk acted like I had asked him to run an errand for me across town.
+The design and grading of the parking lot outside the south entrance to the hotel doesn't allow for proper runoff of rain, there a hill that runs water right to the door with no drainage at all. The first night we were there the rain started coming in the glass entry door. A large water...We were visiting family over Thanksgiving in Ft. Worth. We chose this location due to good reviews and proximity to our son's home. During our stay Ft. Worth was receiving downpours of rain. Unfortunately, this greatly affected our 3-night stay at this La Quinta.The hotel appears new and fresh from the exterior. We requested a ground-floor room due to ease of walking our dog, who always travels with us. I'm a La Quinta Elite rewards member (25+ nights/year), so I am VERY familiar with this hotel chain. I was not given the standard welcome amenity (bottled water and a snack) and, in fact, the entire stay was far below La Quinta standards.The double queen room was large and comfortable. There was a large open area near the exterior window which easily could have accommodated a sofa or loveseat. Instead there was one small chair. I asked for one extra luggage rack (is that SUCH an odd request?) and was told there wasn't one available and the front desk clerk acted like I had asked him to run an errand for me across town.The design and grading of the parking lot outside the south entrance to the hotel doesn't allow for proper runoff of rain, there a hill that runs water right to the door with no drainage at all. The first night we were there the rain started coming in the glass entry door. A large water extraction machine was being used in the hallway outside our room, with several staff loudly talking and shouting at each other over the very loud noise of the machine. This became worse on the second night, both nights there was extreme noise at both 11:30pm and 2am! We repeatedly stuck our heads out to ask for quiet and were ignored.On the morning of our last night we were rudely asked to move to the third floor. The desk clerk had the nerve to complain that she had been calling our room all morning and we didn't answer. No assistance whatsoever was offered for this very inconvenient move. Several other guests were moving and, since the hotel only has two small airport-type luggage carts, we were forced to wait. This took precious time away from our short family visit.Although the rooms in this hotel were well-appointed, the hanging rack in the first room literally fell off the wall when we placed coats on it. When I notified the front desk I was told we would have to move. The bathrooms in both rooms had the absolute worst tiling job I've ever seen, it looked like a 12-year-old had done the work. We were offered absolutely no compensation for our inconvenience (extra rewards points and/or a reduction in room rate would have been appropriate). I had to reprimand the maids in the hallways multiple times for shouting at each other, what hotel guest wants to listen to that? The front desk staff, EVERY time I encountered them, were unwelcoming, unhelpful, or worse.The one positive note was the breakfast selection was good.I absolutely, positively would NOT stay at this hotel again. The front desk staff, every one of them, acted as if guests were inconveniencing them if they even made the most simple request. This hotel is definitely not up to normal La Quinta standards. If it's raining, DEFINITELY don't accept a room on the ground floor. The volumes of water oozing into the hallway and subsequent water-extraction noise, well, we should've checked out after the first night and gone elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>We were visiting family over Thanksgiving in Ft. Worth. We chose this location due to good reviews and proximity to our son's home. During our stay Ft. Worth was receiving downpours of rain. Unfortunately, this greatly affected our 3-night stay at this La Quinta.
+The hotel appears new and fresh from the exterior. We requested a ground-floor room due to ease of walking our dog, who always travels with us. I'm a La Quinta Elite rewards member (25+ nights/year), so I am VERY familiar with this hotel chain. I was not given the standard welcome amenity (bottled water and a snack) and, in fact, the entire stay was far below La Quinta standards.
+The double queen room was large and comfortable. There was a large open area near the exterior window which easily could have accommodated a sofa or loveseat. Instead there was one small chair. I asked for one extra luggage rack (is that SUCH an odd request?) and was told there wasn't one available and the front desk clerk acted like I had asked him to run an errand for me across town.
+The design and grading of the parking lot outside the south entrance to the hotel doesn't allow for proper runoff of rain, there a hill that runs water right to the door with no drainage at all. The first night we were there the rain started coming in the glass entry door. A large water...We were visiting family over Thanksgiving in Ft. Worth. We chose this location due to good reviews and proximity to our son's home. During our stay Ft. Worth was receiving downpours of rain. Unfortunately, this greatly affected our 3-night stay at this La Quinta.The hotel appears new and fresh from the exterior. We requested a ground-floor room due to ease of walking our dog, who always travels with us. I'm a La Quinta Elite rewards member (25+ nights/year), so I am VERY familiar with this hotel chain. I was not given the standard welcome amenity (bottled water and a snack) and, in fact, the entire stay was far below La Quinta standards.The double queen room was large and comfortable. There was a large open area near the exterior window which easily could have accommodated a sofa or loveseat. Instead there was one small chair. I asked for one extra luggage rack (is that SUCH an odd request?) and was told there wasn't one available and the front desk clerk acted like I had asked him to run an errand for me across town.The design and grading of the parking lot outside the south entrance to the hotel doesn't allow for proper runoff of rain, there a hill that runs water right to the door with no drainage at all. The first night we were there the rain started coming in the glass entry door. A large water extraction machine was being used in the hallway outside our room, with several staff loudly talking and shouting at each other over the very loud noise of the machine. This became worse on the second night, both nights there was extreme noise at both 11:30pm and 2am! We repeatedly stuck our heads out to ask for quiet and were ignored.On the morning of our last night we were rudely asked to move to the third floor. The desk clerk had the nerve to complain that she had been calling our room all morning and we didn't answer. No assistance whatsoever was offered for this very inconvenient move. Several other guests were moving and, since the hotel only has two small airport-type luggage carts, we were forced to wait. This took precious time away from our short family visit.Although the rooms in this hotel were well-appointed, the hanging rack in the first room literally fell off the wall when we placed coats on it. When I notified the front desk I was told we would have to move. The bathrooms in both rooms had the absolute worst tiling job I've ever seen, it looked like a 12-year-old had done the work. We were offered absolutely no compensation for our inconvenience (extra rewards points and/or a reduction in room rate would have been appropriate). I had to reprimand the maids in the hallways multiple times for shouting at each other, what hotel guest wants to listen to that? The front desk staff, EVERY time I encountered them, were unwelcoming, unhelpful, or worse.The one positive note was the breakfast selection was good.I absolutely, positively would NOT stay at this hotel again. The front desk staff, every one of them, acted as if guests were inconveniencing them if they even made the most simple request. This hotel is definitely not up to normal La Quinta standards. If it's raining, DEFINITELY don't accept a room on the ground floor. The volumes of water oozing into the hallway and subsequent water-extraction noise, well, we should've checked out after the first night and gone elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r329933388-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>329933388</t>
+  </si>
+  <si>
+    <t>11/30/2015</t>
+  </si>
+  <si>
+    <t>New and nice, but has flourescent lighting, which is cold and depressing</t>
+  </si>
+  <si>
+    <t>Nice hotel, but wish they would use soft white lighting in the rooms. The flourescent lighting is cold and depressing. It's was new and clean. Good service. The staff was friendly and the allow pets. Very nice    MoreShow less</t>
+  </si>
+  <si>
+    <t>Manisha V, Front Office Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Nice hotel, but wish they would use soft white lighting in the rooms. The flourescent lighting is cold and depressing. It's was new and clean. Good service. The staff was friendly and the allow pets. Very nice    More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r329598069-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>329598069</t>
+  </si>
+  <si>
+    <t>11/28/2015</t>
+  </si>
+  <si>
+    <t>Dog barking and crying</t>
+  </si>
+  <si>
+    <t>I knew something was up when, at the time of check-in, I was asked something I'd never been asked before at a hotel -- "sir, how many pets do you have?" Of course, the answer was none. It turned out that there was a barking, crying dog in the room right across the hall from mine. This went on for an hour and a half during the evening while I was in my room. After 3 requests by me to the front desk, the guests in that room got the dog to be quiet. If you're a normal traveler, stay away, If you have dogs with you, you might like it.MoreShow less</t>
+  </si>
+  <si>
+    <t>I knew something was up when, at the time of check-in, I was asked something I'd never been asked before at a hotel -- "sir, how many pets do you have?" Of course, the answer was none. It turned out that there was a barking, crying dog in the room right across the hall from mine. This went on for an hour and a half during the evening while I was in my room. After 3 requests by me to the front desk, the guests in that room got the dog to be quiet. If you're a normal traveler, stay away, If you have dogs with you, you might like it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r324962969-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>324962969</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>Where is the great Customer Service, and is it only limited to Ms. Alicia?</t>
+  </si>
+  <si>
+    <t>This is our second night at this hotel.  We specifically chose it based on the rave customer service reviews, and because it had an indoor "heated" pool and spa.  We are in town for just a couple of days and we wanted to pick a place that was family friendly and where our children could enjoy the pool.  The "heated" pool and the spa were both cold.  The kids only swam for a little while the first night and have not asked to go back.   The customer service fell very short.  I just went downstairs with my toddler looking for filtered water.  I knew there was filtered water in the breakfast area and was hoping to get him a cup.  I walked up to the front desk and there was no one there.  I looked over in the corner and there were 2 employees with their feet up on the wall and both of them were on their phones.  I asked if it would be possible to get some water from the breakfast area or if there was another filtered water station in the hotel.  I was told there was a water fountain in the downstairs bathroom.  At no time did either of them get up to address me or pay me the courtesy of putting their phones down.  A water fountain in the bathroom didn't sound appealing, so my husband ended up going to a nearby gas station to...This is our second night at this hotel.  We specifically chose it based on the rave customer service reviews, and because it had an indoor "heated" pool and spa.  We are in town for just a couple of days and we wanted to pick a place that was family friendly and where our children could enjoy the pool.  The "heated" pool and the spa were both cold.  The kids only swam for a little while the first night and have not asked to go back.   The customer service fell very short.  I just went downstairs with my toddler looking for filtered water.  I knew there was filtered water in the breakfast area and was hoping to get him a cup.  I walked up to the front desk and there was no one there.  I looked over in the corner and there were 2 employees with their feet up on the wall and both of them were on their phones.  I asked if it would be possible to get some water from the breakfast area or if there was another filtered water station in the hotel.  I was told there was a water fountain in the downstairs bathroom.  At no time did either of them get up to address me or pay me the courtesy of putting their phones down.  A water fountain in the bathroom didn't sound appealing, so my husband ended up going to a nearby gas station to get bottled water. We have yet to meet Ms. Alicia or experience the great customer service everyone else raved about.  We will see how breakfast in the morning goes, but based on tonight, don't think we will be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is our second night at this hotel.  We specifically chose it based on the rave customer service reviews, and because it had an indoor "heated" pool and spa.  We are in town for just a couple of days and we wanted to pick a place that was family friendly and where our children could enjoy the pool.  The "heated" pool and the spa were both cold.  The kids only swam for a little while the first night and have not asked to go back.   The customer service fell very short.  I just went downstairs with my toddler looking for filtered water.  I knew there was filtered water in the breakfast area and was hoping to get him a cup.  I walked up to the front desk and there was no one there.  I looked over in the corner and there were 2 employees with their feet up on the wall and both of them were on their phones.  I asked if it would be possible to get some water from the breakfast area or if there was another filtered water station in the hotel.  I was told there was a water fountain in the downstairs bathroom.  At no time did either of them get up to address me or pay me the courtesy of putting their phones down.  A water fountain in the bathroom didn't sound appealing, so my husband ended up going to a nearby gas station to...This is our second night at this hotel.  We specifically chose it based on the rave customer service reviews, and because it had an indoor "heated" pool and spa.  We are in town for just a couple of days and we wanted to pick a place that was family friendly and where our children could enjoy the pool.  The "heated" pool and the spa were both cold.  The kids only swam for a little while the first night and have not asked to go back.   The customer service fell very short.  I just went downstairs with my toddler looking for filtered water.  I knew there was filtered water in the breakfast area and was hoping to get him a cup.  I walked up to the front desk and there was no one there.  I looked over in the corner and there were 2 employees with their feet up on the wall and both of them were on their phones.  I asked if it would be possible to get some water from the breakfast area or if there was another filtered water station in the hotel.  I was told there was a water fountain in the downstairs bathroom.  At no time did either of them get up to address me or pay me the courtesy of putting their phones down.  A water fountain in the bathroom didn't sound appealing, so my husband ended up going to a nearby gas station to get bottled water. We have yet to meet Ms. Alicia or experience the great customer service everyone else raved about.  We will see how breakfast in the morning goes, but based on tonight, don't think we will be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r324157235-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>324157235</t>
+  </si>
+  <si>
+    <t>11/03/2015</t>
+  </si>
+  <si>
+    <t>Simply the best!</t>
+  </si>
+  <si>
+    <t>Excellent place, nice staff, clean, near to a lot of nice places. If English were my native language, I would have written more, but I can't think of any other synonyms for excellent. Margaret was really kind, the room was clean and breakfast was delicious.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manisha V, Manager at La Quinta Inn &amp; Suites Fort Worth West - I-30, responded to this reviewResponded November 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2015</t>
+  </si>
+  <si>
+    <t>Excellent place, nice staff, clean, near to a lot of nice places. If English were my native language, I would have written more, but I can't think of any other synonyms for excellent. Margaret was really kind, the room was clean and breakfast was delicious.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r301323774-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>301323774</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>From the moment I walked in the staff was welcoming and super helpful. The place was very nice and modern. The room was decorated beautiful and very clean. AC worked great and it was cold. The property was very well maintained. The beds were so comfortable bathroom very clean, frig and coffee maker worked well.This is a place you really want to stay. I give it a 10.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>From the moment I walked in the staff was welcoming and super helpful. The place was very nice and modern. The room was decorated beautiful and very clean. AC worked great and it was cold. The property was very well maintained. The beds were so comfortable bathroom very clean, frig and coffee maker worked well.This is a place you really want to stay. I give it a 10.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r298610687-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>298610687</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>New &amp; Very Clean!</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay! The hotel still smells new. Our room was very clean and we had a comfortable bed. The a/c works great! We had a walk in shower (no tub) &amp; the shower doors fell off when sliding them open. The very nice girl at the front desk sent the maintenance man up to fix it. We had to jiggle the handle of the toilet after flushing to stop it from running loudly, but no big deal! We will definitely be back !MoreShow less</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay! The hotel still smells new. Our room was very clean and we had a comfortable bed. The a/c works great! We had a walk in shower (no tub) &amp; the shower doors fell off when sliding them open. The very nice girl at the front desk sent the maintenance man up to fix it. We had to jiggle the handle of the toilet after flushing to stop it from running loudly, but no big deal! We will definitely be back !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r294174192-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>294174192</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Awesome Place to stay</t>
+  </si>
+  <si>
+    <t>Anthony Chamberlain and his staff are totally awesome.  Rooms are exceptionally clean, staff is very accommodating.  My stay here during my recent retirement was great for me and my family.  I would strongly recommend this La Quinta Inn for your stay in Fort WorthMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Anthony Chamberlain and his staff are totally awesome.  Rooms are exceptionally clean, staff is very accommodating.  My stay here during my recent retirement was great for me and my family.  I would strongly recommend this La Quinta Inn for your stay in Fort WorthMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r294055020-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>294055020</t>
+  </si>
+  <si>
+    <t>New for now</t>
+  </si>
+  <si>
+    <t>Over all hotel is clean comfortable beds everything in room worked only complaint would be that as with all newer hotels walls thin room was on second floor &amp; felt as if people above us would come crashing in from above.Noise level not kept out of room.Could hear people talking doors slamming kids running up and down halls.Only complaint is was traveling with a person who needed a handicapped room.Called hotel was told they only have 3 handicapped rooms luckily it wasn't too much of a problem as tub was not too high but bed was.We probably would not stay again due to the number of dogs staying @ hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Over all hotel is clean comfortable beds everything in room worked only complaint would be that as with all newer hotels walls thin room was on second floor &amp; felt as if people above us would come crashing in from above.Noise level not kept out of room.Could hear people talking doors slamming kids running up and down halls.Only complaint is was traveling with a person who needed a handicapped room.Called hotel was told they only have 3 handicapped rooms luckily it wasn't too much of a problem as tub was not too high but bed was.We probably would not stay again due to the number of dogs staying @ hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r292940541-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>292940541</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Will return.</t>
+  </si>
+  <si>
+    <t>Staying there on our second day. New property. Nice location just out side the city. Very clean. Cool pool inside. would recommend it to people that like to stay out side the city with quick access to everything. Great price for a good deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staying there on our second day. New property. Nice location just out side the city. Very clean. Cool pool inside. would recommend it to people that like to stay out side the city with quick access to everything. Great price for a good deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r279501159-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>279501159</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Very Nice and clean</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel several times and well do it again it was close to shopping and food the pool was very nice indoor the breakfast bar was full of great the beds were we the best we have slept onMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel several times and well do it again it was close to shopping and food the pool was very nice indoor the breakfast bar was full of great the beds were we the best we have slept onMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r277403659-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>277403659</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Good Location for Ft Worth's Sights</t>
+  </si>
+  <si>
+    <t>Easy to get to the stockyards and the museums.  Good typical West Texas cafe (The West Side Cafe) nearby for supper or breakfast.  New facility.  Wifi was slow; each key stroke was followed by a length pause.  Easy access to interstate, but my room was quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>Easy to get to the stockyards and the museums.  Good typical West Texas cafe (The West Side Cafe) nearby for supper or breakfast.  New facility.  Wifi was slow; each key stroke was followed by a length pause.  Easy access to interstate, but my room was quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r274929762-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>274929762</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>A great value, brand new hotel</t>
+  </si>
+  <si>
+    <t>Hotel is only six months old.  Plenty of parking.  Very stylish lobby and seating area almost like a Courtyard lobby.  Check in was easy, staff super nice.  Room was great and good size.  Again, very stylish.  Comfy beds, really nice tv with great selection of channels.  Bathroom was nice.  Breakfast was good with hot biscuits, gravy and sausage along with the other standard fare.Hotel is very close to Ridgmar mall and Naval Air Base.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r273845415-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>273845415</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>great service</t>
+  </si>
+  <si>
+    <t>Staff, especially Anthony, made our stay very enjoyable.  I highly recommend this hotel.  The rooms were nice but what made the difference was the high level of customer service.  Anthony went out of his way to make sure we had a pleasant stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r271954927-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>271954927</t>
+  </si>
+  <si>
+    <t>05/14/2015</t>
+  </si>
+  <si>
+    <t>Met all our needs</t>
+  </si>
+  <si>
+    <t>Nicely decorated. Was located great for all the places we needed to go such as the downtown convention center, TCU and the the Pet Smart Hotel on Bryant-Irving Blvd. they had a great breakfast that even included scrambled eggs and bacon along with the usual.Only complaint was the shower doors stuck and were hard to slide. Since everything appears to be recently installed they should have the installer out to check on them.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r266509114-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>266509114</t>
+  </si>
+  <si>
+    <t>04/18/2015</t>
+  </si>
+  <si>
+    <t>Very nice and affordable</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed at this newly refurbished hotel last week before attending a TCU orientation. Although in an older area of Fort Worth, everything about this property is new. Good water pressure in showers, fresh paint, clean carpet, crisp bedding, well lit, smells good, etc. I liked the small but well furnished workout room. Even the grass around the property is new and green. Breakfast is limited but has foods that we like to eat - boiled eggs, cereals, pastries and fresh waffles. Excellent value for the price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r266439948-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>266439948</t>
+  </si>
+  <si>
+    <t>Multiple Stay Guest</t>
+  </si>
+  <si>
+    <t>One of the first guests Dec 2014 as they opened. I have been back multiple times(10+) over the last 4 months.  Staff has been great, comfortable rooms, bed, location, competitive price, and resturants &amp; Mall about a mile.  Easy access to Cultrual, Museum and University Areas.  I'll be back!</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r263885644-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>263885644</t>
+  </si>
+  <si>
+    <t>04/05/2015</t>
+  </si>
+  <si>
+    <t>Stay OK....staff needs customer service training.</t>
+  </si>
+  <si>
+    <t>My son and I stayed on night on March 25th. Overall it was an ok stay and met my needs but the staff needs retraining on customer service.
+We arrived at 1630 and there were several guests ahead of me. Check in was painfully slow as there was only one clerk doing the check ins. Another clerk was doing something on the other computer and never stopped what she was doing to assist with check in. The woman doing the check ins was too busy complaining about how it was past her time and that she should've been off 30 minutes ago. All she did was complain. Not very professional and your guests do not care what time you  get off. Keep your complaining to yourself. When it was finally my turn, she never greeted me and her only words to me were to ask me what kind of room I wanted. I told her I wanted something AWAY from the elevators and ice machines and she gave me a room right by both. I could hear the elevator and ice machines in my room as my room was right by both. Not very happy about this at all. 
+The room was very clean. Everything was in working order. The room included a fridge and microwave as well. Both were clean and in working order. Bathroom was very clean but the toilet always had to be flushed multiple times for...My son and I stayed on night on March 25th. Overall it was an ok stay and met my needs but the staff needs retraining on customer service.We arrived at 1630 and there were several guests ahead of me. Check in was painfully slow as there was only one clerk doing the check ins. Another clerk was doing something on the other computer and never stopped what she was doing to assist with check in. The woman doing the check ins was too busy complaining about how it was past her time and that she should've been off 30 minutes ago. All she did was complain. Not very professional and your guests do not care what time you  get off. Keep your complaining to yourself. When it was finally my turn, she never greeted me and her only words to me were to ask me what kind of room I wanted. I told her I wanted something AWAY from the elevators and ice machines and she gave me a room right by both. I could hear the elevator and ice machines in my room as my room was right by both. Not very happy about this at all. The room was very clean. Everything was in working order. The room included a fridge and microwave as well. Both were clean and in working order. Bathroom was very clean but the toilet always had to be flushed multiple times for some reason. The water pressure was horrible in the sink and the shower was only marginally better. But atleast it was clean. The mattress was comfortable but the entire bed squeaked every time I   moved even slightly. I don't know what was causing it but the other bed was not squeaking at all. The lobby was clean and modern but the airport style luggage carts are useless. They need to be replaced with the larger, hotel type carts. This is the 3rd LQ I have stayed at with these types of carts. Get rid of them. We left for dinner and came back. There were two employees at the front desk. No one greeted us when we returned. One was on a personal cell phone and the other was just standing there. Not very professional at all. The hotel is kind of hidden but that is good because you don't hear all the freeway noise. Easy access to 30 and other Fort Worth freeways. We did not eat breakfast but it looked like typical LQ fare. The wi fi was decent and free. It was adequate for web browsing.I like the newness of the property but the lack of customer service is really off putting. i tried to mention the toilet and the bed issues to someone when we left but after waiting 10 minutes in the lobby for someone to show up I just left. There was a housekeeper cleaning windows and I asked if there was anyone at the front desk and she just shrugged her shoulders and walked off. Like I said...total lack of customer service. I would only return if had I had no choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>My son and I stayed on night on March 25th. Overall it was an ok stay and met my needs but the staff needs retraining on customer service.
+We arrived at 1630 and there were several guests ahead of me. Check in was painfully slow as there was only one clerk doing the check ins. Another clerk was doing something on the other computer and never stopped what she was doing to assist with check in. The woman doing the check ins was too busy complaining about how it was past her time and that she should've been off 30 minutes ago. All she did was complain. Not very professional and your guests do not care what time you  get off. Keep your complaining to yourself. When it was finally my turn, she never greeted me and her only words to me were to ask me what kind of room I wanted. I told her I wanted something AWAY from the elevators and ice machines and she gave me a room right by both. I could hear the elevator and ice machines in my room as my room was right by both. Not very happy about this at all. 
+The room was very clean. Everything was in working order. The room included a fridge and microwave as well. Both were clean and in working order. Bathroom was very clean but the toilet always had to be flushed multiple times for...My son and I stayed on night on March 25th. Overall it was an ok stay and met my needs but the staff needs retraining on customer service.We arrived at 1630 and there were several guests ahead of me. Check in was painfully slow as there was only one clerk doing the check ins. Another clerk was doing something on the other computer and never stopped what she was doing to assist with check in. The woman doing the check ins was too busy complaining about how it was past her time and that she should've been off 30 minutes ago. All she did was complain. Not very professional and your guests do not care what time you  get off. Keep your complaining to yourself. When it was finally my turn, she never greeted me and her only words to me were to ask me what kind of room I wanted. I told her I wanted something AWAY from the elevators and ice machines and she gave me a room right by both. I could hear the elevator and ice machines in my room as my room was right by both. Not very happy about this at all. The room was very clean. Everything was in working order. The room included a fridge and microwave as well. Both were clean and in working order. Bathroom was very clean but the toilet always had to be flushed multiple times for some reason. The water pressure was horrible in the sink and the shower was only marginally better. But atleast it was clean. The mattress was comfortable but the entire bed squeaked every time I   moved even slightly. I don't know what was causing it but the other bed was not squeaking at all. The lobby was clean and modern but the airport style luggage carts are useless. They need to be replaced with the larger, hotel type carts. This is the 3rd LQ I have stayed at with these types of carts. Get rid of them. We left for dinner and came back. There were two employees at the front desk. No one greeted us when we returned. One was on a personal cell phone and the other was just standing there. Not very professional at all. The hotel is kind of hidden but that is good because you don't hear all the freeway noise. Easy access to 30 and other Fort Worth freeways. We did not eat breakfast but it looked like typical LQ fare. The wi fi was decent and free. It was adequate for web browsing.I like the newness of the property but the lack of customer service is really off putting. i tried to mention the toilet and the bed issues to someone when we left but after waiting 10 minutes in the lobby for someone to show up I just left. There was a housekeeper cleaning windows and I asked if there was anyone at the front desk and she just shrugged her shoulders and walked off. Like I said...total lack of customer service. I would only return if had I had no choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r261638782-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>261638782</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>3 night stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newly built in Dec 2014, I had a very relaxing stay and this was due to the firm but comfortable bed, good water pressure during a shower, always had clean towels, ease of access to elevators. If there needs to be any gripes at all then of course the continental breakfast is light but good. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r261373918-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>261373918</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Apparent new construction from newly laid sod and crisp, fresh decor throughout lobby and guestrooms.  My room was very large, clean and comfortable.  Arrived and when I tried to check in, I waited about 5 minutes while phone lines rang,  answering machines answered phones, etc.  No one showed up, so I left to meet friends for dinner.  When I went back a few hours later, a very nice and apologetic young gentleman helped me check in.  He said they were a bit short staffed, which coupled with the obvious new appearance explains the large banner advertising for applicants.   Convenient location to many Fort Worth sites.  Road construction makes it a bit tricky, but would definitely stay again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Apparent new construction from newly laid sod and crisp, fresh decor throughout lobby and guestrooms.  My room was very large, clean and comfortable.  Arrived and when I tried to check in, I waited about 5 minutes while phone lines rang,  answering machines answered phones, etc.  No one showed up, so I left to meet friends for dinner.  When I went back a few hours later, a very nice and apologetic young gentleman helped me check in.  He said they were a bit short staffed, which coupled with the obvious new appearance explains the large banner advertising for applicants.   Convenient location to many Fort Worth sites.  Road construction makes it a bit tricky, but would definitely stay again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r261173253-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>261173253</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Nice new hotel</t>
+  </si>
+  <si>
+    <t>Very nice new hotel. Good location and connections to nearby highway. Modern interior design was nice and hotel was clean. Rooms are large with pillow top matresses for a great nights sleep. Breakfast bar was good with the usual LQ choices. Cereal, waffles, eggs, bacon, sausage, biscuits with gravy. Really a pretty good breakfast but the coffee is not good. LaQuinta should really spend the extra dollars to drew coffee in the morning, not their instant coffee machine stuff. Grounds were nice with new sod starting to green up. Safe area but could use more parking space. Pet friendly is great. Hotel was packed with dog show people and pets which was really fun. Need more luggage carts and maybe some that can carry hang-ups bags. Overall this is a nice place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice new hotel. Good location and connections to nearby highway. Modern interior design was nice and hotel was clean. Rooms are large with pillow top matresses for a great nights sleep. Breakfast bar was good with the usual LQ choices. Cereal, waffles, eggs, bacon, sausage, biscuits with gravy. Really a pretty good breakfast but the coffee is not good. LaQuinta should really spend the extra dollars to drew coffee in the morning, not their instant coffee machine stuff. Grounds were nice with new sod starting to green up. Safe area but could use more parking space. Pet friendly is great. Hotel was packed with dog show people and pets which was really fun. Need more luggage carts and maybe some that can carry hang-ups bags. Overall this is a nice place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r259809843-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>259809843</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Honeymoon trip!</t>
+  </si>
+  <si>
+    <t>We stopped here on our way to our destination. The building still has the new smell to it, the furnishings are all new and modern and the shower was fantastic! It even has an indoor pool and hot tub. Also has an awesome fitness center including free weights with cardio equipment.  If you like walking paths, there is a decommissioned golf course 2 blocks away which is a great hideaway from the big city, very peaceful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r257524369-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>257524369</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Not new - just refurbished</t>
+  </si>
+  <si>
+    <t>When we called the hotel, they said the hotel was brand new.  Not true.  The hotel has been refurbished and looks nice on the surface, BUT...the walls are so thin, we could hear the people talking in the rooms on either side.  The breakfast is bare-bones, so don't expect much.  This hotel is in a flight path, so no matter what room you're in, the noise continues until 8 to 10 p.m. each night.
+The worst part is night clerk's customer service.  We asked the night front desk person for a quiet room and were given a top floor right in the flight path.  The next day, it started smelling horribly of rotten eggs.  When we complained, they said, "Oh, that's from a previous guest."  The front desk manager for days was super helpful and moved us.  He apologized profusely and was very accommodating.
+The other weird, cost-cutting measure here is the indoor pool is NOT HEATED!  It was icy cold, and we couldn't swim.  The night front desk clerk had also placed an out of order sign on the door regarding the small spa.  They said it would take days to have it repaired.  The day front desk manager called the spa repair company and had it fixed in two hours.
+I suggest using caution if you stay here.  It would be OK if you have to work in the area, but it was not a comfortable location for...When we called the hotel, they said the hotel was brand new.  Not true.  The hotel has been refurbished and looks nice on the surface, BUT...the walls are so thin, we could hear the people talking in the rooms on either side.  The breakfast is bare-bones, so don't expect much.  This hotel is in a flight path, so no matter what room you're in, the noise continues until 8 to 10 p.m. each night.The worst part is night clerk's customer service.  We asked the night front desk person for a quiet room and were given a top floor right in the flight path.  The next day, it started smelling horribly of rotten eggs.  When we complained, they said, "Oh, that's from a previous guest."  The front desk manager for days was super helpful and moved us.  He apologized profusely and was very accommodating.The other weird, cost-cutting measure here is the indoor pool is NOT HEATED!  It was icy cold, and we couldn't swim.  The night front desk clerk had also placed an out of order sign on the door regarding the small spa.  They said it would take days to have it repaired.  The day front desk manager called the spa repair company and had it fixed in two hours.I suggest using caution if you stay here.  It would be OK if you have to work in the area, but it was not a comfortable location for a family on a short vacation.  If you have to do any work in the room, be aware that the airplane noise makes that extremely dicey.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>When we called the hotel, they said the hotel was brand new.  Not true.  The hotel has been refurbished and looks nice on the surface, BUT...the walls are so thin, we could hear the people talking in the rooms on either side.  The breakfast is bare-bones, so don't expect much.  This hotel is in a flight path, so no matter what room you're in, the noise continues until 8 to 10 p.m. each night.
+The worst part is night clerk's customer service.  We asked the night front desk person for a quiet room and were given a top floor right in the flight path.  The next day, it started smelling horribly of rotten eggs.  When we complained, they said, "Oh, that's from a previous guest."  The front desk manager for days was super helpful and moved us.  He apologized profusely and was very accommodating.
+The other weird, cost-cutting measure here is the indoor pool is NOT HEATED!  It was icy cold, and we couldn't swim.  The night front desk clerk had also placed an out of order sign on the door regarding the small spa.  They said it would take days to have it repaired.  The day front desk manager called the spa repair company and had it fixed in two hours.
+I suggest using caution if you stay here.  It would be OK if you have to work in the area, but it was not a comfortable location for...When we called the hotel, they said the hotel was brand new.  Not true.  The hotel has been refurbished and looks nice on the surface, BUT...the walls are so thin, we could hear the people talking in the rooms on either side.  The breakfast is bare-bones, so don't expect much.  This hotel is in a flight path, so no matter what room you're in, the noise continues until 8 to 10 p.m. each night.The worst part is night clerk's customer service.  We asked the night front desk person for a quiet room and were given a top floor right in the flight path.  The next day, it started smelling horribly of rotten eggs.  When we complained, they said, "Oh, that's from a previous guest."  The front desk manager for days was super helpful and moved us.  He apologized profusely and was very accommodating.The other weird, cost-cutting measure here is the indoor pool is NOT HEATED!  It was icy cold, and we couldn't swim.  The night front desk clerk had also placed an out of order sign on the door regarding the small spa.  They said it would take days to have it repaired.  The day front desk manager called the spa repair company and had it fixed in two hours.I suggest using caution if you stay here.  It would be OK if you have to work in the area, but it was not a comfortable location for a family on a short vacation.  If you have to do any work in the room, be aware that the airplane noise makes that extremely dicey.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r255125263-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>255125263</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Nice Hotel at Great Location</t>
+  </si>
+  <si>
+    <t>Hotel is brand new. Very convenient to all major highways. Inside of the hotel is really great with contemporary design. I would rate this as a 3 star hotel at least. Folks at front desk were very friendly and courteous. Hotel feels very warm and safe. Free breakfast was nice bonus in morning! Coffee could be little better.I would love to see a Starbucks stall in breakfast area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r250671981-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>250671981</t>
+  </si>
+  <si>
+    <t>01/23/2015</t>
+  </si>
+  <si>
+    <t>January 2015</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2587,6251 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>96</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>114</v>
+      </c>
+      <c r="X12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>114</v>
+      </c>
+      <c r="X13" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>113</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>114</v>
+      </c>
+      <c r="X14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>113</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>114</v>
+      </c>
+      <c r="X15" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>113</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>114</v>
+      </c>
+      <c r="X16" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>107</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>114</v>
+      </c>
+      <c r="X17" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>153</v>
+      </c>
+      <c r="X18" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>146</v>
+      </c>
+      <c r="O19" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>153</v>
+      </c>
+      <c r="X19" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>146</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>153</v>
+      </c>
+      <c r="X20" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>146</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>153</v>
+      </c>
+      <c r="X21" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" t="s">
+        <v>107</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>180</v>
+      </c>
+      <c r="X22" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" t="s">
+        <v>186</v>
+      </c>
+      <c r="L23" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>188</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>189</v>
+      </c>
+      <c r="X23" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s">
+        <v>195</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>188</v>
+      </c>
+      <c r="O24" t="s">
+        <v>196</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>197</v>
+      </c>
+      <c r="X24" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>188</v>
+      </c>
+      <c r="O25" t="s">
+        <v>107</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>205</v>
+      </c>
+      <c r="X25" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" t="s">
+        <v>211</v>
+      </c>
+      <c r="L26" t="s">
+        <v>212</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>213</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>214</v>
+      </c>
+      <c r="X26" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" t="s">
+        <v>219</v>
+      </c>
+      <c r="K27" t="s">
+        <v>220</v>
+      </c>
+      <c r="L27" t="s">
+        <v>221</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O27" t="s">
+        <v>107</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>223</v>
+      </c>
+      <c r="X27" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>227</v>
+      </c>
+      <c r="J28" t="s">
+        <v>228</v>
+      </c>
+      <c r="K28" t="s">
+        <v>229</v>
+      </c>
+      <c r="L28" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>222</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>231</v>
+      </c>
+      <c r="X28" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>234</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" t="s">
+        <v>237</v>
+      </c>
+      <c r="L29" t="s">
+        <v>238</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>222</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>239</v>
+      </c>
+      <c r="X29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>243</v>
+      </c>
+      <c r="J30" t="s">
+        <v>244</v>
+      </c>
+      <c r="K30" t="s">
+        <v>245</v>
+      </c>
+      <c r="L30" t="s">
+        <v>246</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>222</v>
+      </c>
+      <c r="O30" t="s">
+        <v>96</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>239</v>
+      </c>
+      <c r="X30" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>249</v>
+      </c>
+      <c r="J31" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" t="s">
+        <v>251</v>
+      </c>
+      <c r="L31" t="s">
+        <v>252</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>213</v>
+      </c>
+      <c r="O31" t="s">
+        <v>107</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>253</v>
+      </c>
+      <c r="X31" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>257</v>
+      </c>
+      <c r="J32" t="s">
+        <v>258</v>
+      </c>
+      <c r="K32" t="s">
+        <v>259</v>
+      </c>
+      <c r="L32" t="s">
+        <v>260</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>213</v>
+      </c>
+      <c r="O32" t="s">
+        <v>107</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>261</v>
+      </c>
+      <c r="X32" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>264</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>265</v>
+      </c>
+      <c r="J33" t="s">
+        <v>266</v>
+      </c>
+      <c r="K33" t="s">
+        <v>267</v>
+      </c>
+      <c r="L33" t="s">
+        <v>268</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>269</v>
+      </c>
+      <c r="O33" t="s">
+        <v>107</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>270</v>
+      </c>
+      <c r="X33" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>273</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>274</v>
+      </c>
+      <c r="J34" t="s">
+        <v>275</v>
+      </c>
+      <c r="K34" t="s">
+        <v>276</v>
+      </c>
+      <c r="L34" t="s">
+        <v>277</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>213</v>
+      </c>
+      <c r="O34" t="s">
+        <v>107</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>278</v>
+      </c>
+      <c r="X34" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>281</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>282</v>
+      </c>
+      <c r="J35" t="s">
+        <v>283</v>
+      </c>
+      <c r="K35" t="s">
+        <v>284</v>
+      </c>
+      <c r="L35" t="s">
+        <v>285</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>213</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>286</v>
+      </c>
+      <c r="X35" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>289</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>290</v>
+      </c>
+      <c r="J36" t="s">
+        <v>291</v>
+      </c>
+      <c r="K36" t="s">
+        <v>292</v>
+      </c>
+      <c r="L36" t="s">
+        <v>293</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>213</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>294</v>
+      </c>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>296</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>297</v>
+      </c>
+      <c r="J37" t="s">
+        <v>298</v>
+      </c>
+      <c r="K37" t="s">
+        <v>299</v>
+      </c>
+      <c r="L37" t="s">
+        <v>300</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>213</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>301</v>
+      </c>
+      <c r="X37" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>305</v>
+      </c>
+      <c r="J38" t="s">
+        <v>306</v>
+      </c>
+      <c r="K38" t="s">
+        <v>307</v>
+      </c>
+      <c r="L38" t="s">
+        <v>308</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>213</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>309</v>
+      </c>
+      <c r="X38" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>312</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>313</v>
+      </c>
+      <c r="J39" t="s">
+        <v>314</v>
+      </c>
+      <c r="K39" t="s">
+        <v>315</v>
+      </c>
+      <c r="L39" t="s">
+        <v>316</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>213</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>317</v>
+      </c>
+      <c r="X39" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>320</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>321</v>
+      </c>
+      <c r="J40" t="s">
+        <v>322</v>
+      </c>
+      <c r="K40" t="s">
+        <v>323</v>
+      </c>
+      <c r="L40" t="s">
+        <v>324</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>325</v>
+      </c>
+      <c r="O40" t="s">
+        <v>107</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>326</v>
+      </c>
+      <c r="X40" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>329</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>330</v>
+      </c>
+      <c r="J41" t="s">
+        <v>331</v>
+      </c>
+      <c r="K41" t="s">
+        <v>332</v>
+      </c>
+      <c r="L41" t="s">
+        <v>333</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>325</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>326</v>
+      </c>
+      <c r="X41" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>335</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>336</v>
+      </c>
+      <c r="J42" t="s">
+        <v>331</v>
+      </c>
+      <c r="K42" t="s">
+        <v>337</v>
+      </c>
+      <c r="L42" t="s">
+        <v>338</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>325</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>326</v>
+      </c>
+      <c r="X42" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>340</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>341</v>
+      </c>
+      <c r="J43" t="s">
+        <v>342</v>
+      </c>
+      <c r="K43" t="s">
+        <v>343</v>
+      </c>
+      <c r="L43" t="s">
+        <v>344</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>325</v>
+      </c>
+      <c r="O43" t="s">
+        <v>96</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>345</v>
+      </c>
+      <c r="X43" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>348</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>349</v>
+      </c>
+      <c r="J44" t="s">
+        <v>350</v>
+      </c>
+      <c r="K44" t="s">
+        <v>351</v>
+      </c>
+      <c r="L44" t="s">
+        <v>352</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>325</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>326</v>
+      </c>
+      <c r="X44" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>354</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>355</v>
+      </c>
+      <c r="J45" t="s">
+        <v>356</v>
+      </c>
+      <c r="K45" t="s">
+        <v>357</v>
+      </c>
+      <c r="L45" t="s">
+        <v>358</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>325</v>
+      </c>
+      <c r="O45" t="s">
+        <v>107</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>326</v>
+      </c>
+      <c r="X45" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>360</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>361</v>
+      </c>
+      <c r="J46" t="s">
+        <v>362</v>
+      </c>
+      <c r="K46" t="s">
+        <v>363</v>
+      </c>
+      <c r="L46" t="s">
+        <v>364</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>365</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>326</v>
+      </c>
+      <c r="X46" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>367</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>368</v>
+      </c>
+      <c r="J47" t="s">
+        <v>369</v>
+      </c>
+      <c r="K47" t="s">
+        <v>370</v>
+      </c>
+      <c r="L47" t="s">
+        <v>371</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>372</v>
+      </c>
+      <c r="O47" t="s">
+        <v>96</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>326</v>
+      </c>
+      <c r="X47" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>374</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>375</v>
+      </c>
+      <c r="J48" t="s">
+        <v>376</v>
+      </c>
+      <c r="K48" t="s">
+        <v>377</v>
+      </c>
+      <c r="L48" t="s">
+        <v>378</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>379</v>
+      </c>
+      <c r="O48" t="s">
+        <v>107</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>345</v>
+      </c>
+      <c r="X48" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>381</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>382</v>
+      </c>
+      <c r="J49" t="s">
+        <v>383</v>
+      </c>
+      <c r="K49" t="s">
+        <v>384</v>
+      </c>
+      <c r="L49" t="s">
+        <v>385</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>386</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>345</v>
+      </c>
+      <c r="X49" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>388</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>389</v>
+      </c>
+      <c r="J50" t="s">
+        <v>390</v>
+      </c>
+      <c r="K50" t="s">
+        <v>391</v>
+      </c>
+      <c r="L50" t="s">
+        <v>392</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>379</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>345</v>
+      </c>
+      <c r="X50" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>394</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>395</v>
+      </c>
+      <c r="J51" t="s">
+        <v>396</v>
+      </c>
+      <c r="K51" t="s">
+        <v>397</v>
+      </c>
+      <c r="L51" t="s">
+        <v>398</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>386</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>399</v>
+      </c>
+      <c r="X51" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>402</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>403</v>
+      </c>
+      <c r="J52" t="s">
+        <v>404</v>
+      </c>
+      <c r="K52" t="s">
+        <v>405</v>
+      </c>
+      <c r="L52" t="s">
+        <v>406</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>407</v>
+      </c>
+      <c r="O52" t="s">
+        <v>107</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>399</v>
+      </c>
+      <c r="X52" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>409</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>410</v>
+      </c>
+      <c r="J53" t="s">
+        <v>411</v>
+      </c>
+      <c r="K53" t="s">
+        <v>412</v>
+      </c>
+      <c r="L53" t="s">
+        <v>413</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>407</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>345</v>
+      </c>
+      <c r="X53" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>415</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>416</v>
+      </c>
+      <c r="J54" t="s">
+        <v>417</v>
+      </c>
+      <c r="K54" t="s">
+        <v>418</v>
+      </c>
+      <c r="L54" t="s">
+        <v>419</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>420</v>
+      </c>
+      <c r="O54" t="s">
+        <v>196</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>399</v>
+      </c>
+      <c r="X54" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>422</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>423</v>
+      </c>
+      <c r="J55" t="s">
+        <v>424</v>
+      </c>
+      <c r="K55" t="s">
+        <v>425</v>
+      </c>
+      <c r="L55" t="s">
+        <v>426</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>420</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>427</v>
+      </c>
+      <c r="X55" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>430</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>431</v>
+      </c>
+      <c r="J56" t="s">
+        <v>432</v>
+      </c>
+      <c r="K56" t="s">
+        <v>433</v>
+      </c>
+      <c r="L56" t="s">
+        <v>434</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>420</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>427</v>
+      </c>
+      <c r="X56" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>436</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>437</v>
+      </c>
+      <c r="J57" t="s">
+        <v>438</v>
+      </c>
+      <c r="K57" t="s">
+        <v>439</v>
+      </c>
+      <c r="L57" t="s">
+        <v>440</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>441</v>
+      </c>
+      <c r="O57" t="s">
+        <v>107</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>345</v>
+      </c>
+      <c r="X57" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>443</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>444</v>
+      </c>
+      <c r="J58" t="s">
+        <v>445</v>
+      </c>
+      <c r="K58" t="s">
+        <v>446</v>
+      </c>
+      <c r="L58" t="s">
+        <v>447</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>448</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>449</v>
+      </c>
+      <c r="X58" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>452</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>453</v>
+      </c>
+      <c r="J59" t="s">
+        <v>454</v>
+      </c>
+      <c r="K59" t="s">
+        <v>455</v>
+      </c>
+      <c r="L59" t="s">
+        <v>456</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>457</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>449</v>
+      </c>
+      <c r="X59" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>459</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>460</v>
+      </c>
+      <c r="J60" t="s">
+        <v>461</v>
+      </c>
+      <c r="K60" t="s">
+        <v>462</v>
+      </c>
+      <c r="L60" t="s">
+        <v>463</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>449</v>
+      </c>
+      <c r="X60" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>465</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>466</v>
+      </c>
+      <c r="J61" t="s">
+        <v>467</v>
+      </c>
+      <c r="K61" t="s">
+        <v>468</v>
+      </c>
+      <c r="L61" t="s">
+        <v>469</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>470</v>
+      </c>
+      <c r="O61" t="s">
+        <v>196</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>449</v>
+      </c>
+      <c r="X61" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>472</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>473</v>
+      </c>
+      <c r="J62" t="s">
+        <v>474</v>
+      </c>
+      <c r="K62" t="s">
+        <v>475</v>
+      </c>
+      <c r="L62" t="s">
+        <v>476</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>477</v>
+      </c>
+      <c r="O62" t="s">
+        <v>107</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>449</v>
+      </c>
+      <c r="X62" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>479</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>480</v>
+      </c>
+      <c r="J63" t="s">
+        <v>481</v>
+      </c>
+      <c r="K63" t="s">
+        <v>482</v>
+      </c>
+      <c r="L63" t="s">
+        <v>483</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>477</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>449</v>
+      </c>
+      <c r="X63" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>485</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>486</v>
+      </c>
+      <c r="J64" t="s">
+        <v>487</v>
+      </c>
+      <c r="K64" t="s">
+        <v>488</v>
+      </c>
+      <c r="L64" t="s">
+        <v>489</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>477</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>449</v>
+      </c>
+      <c r="X64" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>491</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>492</v>
+      </c>
+      <c r="J65" t="s">
+        <v>493</v>
+      </c>
+      <c r="K65" t="s">
+        <v>494</v>
+      </c>
+      <c r="L65" t="s">
+        <v>495</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>477</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>449</v>
+      </c>
+      <c r="X65" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>497</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>498</v>
+      </c>
+      <c r="J66" t="s">
+        <v>499</v>
+      </c>
+      <c r="K66" t="s">
+        <v>500</v>
+      </c>
+      <c r="L66" t="s">
+        <v>501</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>502</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>449</v>
+      </c>
+      <c r="X66" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>504</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>505</v>
+      </c>
+      <c r="J67" t="s">
+        <v>506</v>
+      </c>
+      <c r="K67" t="s">
+        <v>507</v>
+      </c>
+      <c r="L67" t="s">
+        <v>508</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>509</v>
+      </c>
+      <c r="O67" t="s">
+        <v>196</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>449</v>
+      </c>
+      <c r="X67" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>511</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>512</v>
+      </c>
+      <c r="J68" t="s">
+        <v>506</v>
+      </c>
+      <c r="K68" t="s">
+        <v>513</v>
+      </c>
+      <c r="L68" t="s">
+        <v>514</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>509</v>
+      </c>
+      <c r="O68" t="s">
+        <v>107</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>449</v>
+      </c>
+      <c r="X68" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>516</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>517</v>
+      </c>
+      <c r="J69" t="s">
+        <v>518</v>
+      </c>
+      <c r="K69" t="s">
+        <v>519</v>
+      </c>
+      <c r="L69" t="s">
+        <v>520</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>521</v>
+      </c>
+      <c r="O69" t="s">
+        <v>96</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>449</v>
+      </c>
+      <c r="X69" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>523</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>524</v>
+      </c>
+      <c r="J70" t="s">
+        <v>525</v>
+      </c>
+      <c r="K70" t="s">
+        <v>526</v>
+      </c>
+      <c r="L70" t="s">
+        <v>527</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>521</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>449</v>
+      </c>
+      <c r="X70" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>529</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>530</v>
+      </c>
+      <c r="J71" t="s">
+        <v>531</v>
+      </c>
+      <c r="K71" t="s">
+        <v>532</v>
+      </c>
+      <c r="L71" t="s">
+        <v>533</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>521</v>
+      </c>
+      <c r="O71" t="s">
+        <v>107</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>449</v>
+      </c>
+      <c r="X71" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>535</v>
+      </c>
+      <c r="F72" t="s">
+        <v>536</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>537</v>
+      </c>
+      <c r="J72" t="s">
+        <v>538</v>
+      </c>
+      <c r="K72" t="s">
+        <v>539</v>
+      </c>
+      <c r="L72" t="s">
+        <v>540</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>541</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>449</v>
+      </c>
+      <c r="X72" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>535</v>
+      </c>
+      <c r="F73" t="s">
+        <v>543</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>544</v>
+      </c>
+      <c r="J73" t="s">
+        <v>545</v>
+      </c>
+      <c r="K73" t="s">
+        <v>546</v>
+      </c>
+      <c r="L73" t="s">
+        <v>547</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>541</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>548</v>
+      </c>
+      <c r="X73" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>535</v>
+      </c>
+      <c r="F74" t="s">
+        <v>550</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>551</v>
+      </c>
+      <c r="J74" t="s">
+        <v>552</v>
+      </c>
+      <c r="K74" t="s">
+        <v>553</v>
+      </c>
+      <c r="L74" t="s">
+        <v>554</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>541</v>
+      </c>
+      <c r="O74" t="s">
+        <v>96</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>449</v>
+      </c>
+      <c r="X74" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>535</v>
+      </c>
+      <c r="F75" t="s">
+        <v>556</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>557</v>
+      </c>
+      <c r="J75" t="s">
+        <v>558</v>
+      </c>
+      <c r="K75" t="s">
+        <v>559</v>
+      </c>
+      <c r="L75" t="s">
+        <v>560</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>541</v>
+      </c>
+      <c r="O75" t="s">
+        <v>107</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>449</v>
+      </c>
+      <c r="X75" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>535</v>
+      </c>
+      <c r="F76" t="s">
+        <v>562</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>563</v>
+      </c>
+      <c r="J76" t="s">
+        <v>564</v>
+      </c>
+      <c r="K76" t="s">
+        <v>565</v>
+      </c>
+      <c r="L76" t="s">
+        <v>566</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>541</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>567</v>
+      </c>
+      <c r="X76" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>535</v>
+      </c>
+      <c r="F77" t="s">
+        <v>570</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>571</v>
+      </c>
+      <c r="J77" t="s">
+        <v>572</v>
+      </c>
+      <c r="K77" t="s">
+        <v>573</v>
+      </c>
+      <c r="L77" t="s">
+        <v>574</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>575</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>567</v>
+      </c>
+      <c r="X77" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>535</v>
+      </c>
+      <c r="F78" t="s">
+        <v>577</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>578</v>
+      </c>
+      <c r="J78" t="s">
+        <v>579</v>
+      </c>
+      <c r="K78" t="s">
+        <v>580</v>
+      </c>
+      <c r="L78" t="s">
+        <v>581</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>575</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>567</v>
+      </c>
+      <c r="X78" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>535</v>
+      </c>
+      <c r="F79" t="s">
+        <v>583</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>584</v>
+      </c>
+      <c r="J79" t="s">
+        <v>585</v>
+      </c>
+      <c r="K79" t="s">
+        <v>586</v>
+      </c>
+      <c r="L79" t="s">
+        <v>587</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>588</v>
+      </c>
+      <c r="O79" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>567</v>
+      </c>
+      <c r="X79" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>535</v>
+      </c>
+      <c r="F80" t="s">
+        <v>590</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>591</v>
+      </c>
+      <c r="J80" t="s">
+        <v>585</v>
+      </c>
+      <c r="K80" t="s">
+        <v>592</v>
+      </c>
+      <c r="L80" t="s">
+        <v>593</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>588</v>
+      </c>
+      <c r="O80" t="s">
+        <v>107</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>567</v>
+      </c>
+      <c r="X80" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>535</v>
+      </c>
+      <c r="F81" t="s">
+        <v>595</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>596</v>
+      </c>
+      <c r="J81" t="s">
+        <v>597</v>
+      </c>
+      <c r="K81" t="s">
+        <v>598</v>
+      </c>
+      <c r="L81" t="s">
+        <v>599</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>588</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>567</v>
+      </c>
+      <c r="X81" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>535</v>
+      </c>
+      <c r="F82" t="s">
+        <v>601</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>602</v>
+      </c>
+      <c r="J82" t="s">
+        <v>603</v>
+      </c>
+      <c r="K82" t="s">
+        <v>604</v>
+      </c>
+      <c r="L82" t="s">
+        <v>605</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>606</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>567</v>
+      </c>
+      <c r="X82" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>535</v>
+      </c>
+      <c r="F83" t="s">
+        <v>608</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>609</v>
+      </c>
+      <c r="J83" t="s">
+        <v>610</v>
+      </c>
+      <c r="K83" t="s">
+        <v>611</v>
+      </c>
+      <c r="L83" t="s">
+        <v>612</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>606</v>
+      </c>
+      <c r="O83" t="s">
+        <v>96</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>567</v>
+      </c>
+      <c r="X83" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>535</v>
+      </c>
+      <c r="F84" t="s">
+        <v>614</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>615</v>
+      </c>
+      <c r="J84" t="s">
+        <v>616</v>
+      </c>
+      <c r="K84" t="s">
+        <v>617</v>
+      </c>
+      <c r="L84" t="s">
+        <v>618</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>619</v>
+      </c>
+      <c r="O84" t="s">
+        <v>96</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>535</v>
+      </c>
+      <c r="F85" t="s">
+        <v>620</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>621</v>
+      </c>
+      <c r="J85" t="s">
+        <v>622</v>
+      </c>
+      <c r="K85" t="s">
+        <v>623</v>
+      </c>
+      <c r="L85" t="s">
+        <v>624</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>619</v>
+      </c>
+      <c r="O85" t="s">
+        <v>60</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>535</v>
+      </c>
+      <c r="F86" t="s">
+        <v>625</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>626</v>
+      </c>
+      <c r="J86" t="s">
+        <v>627</v>
+      </c>
+      <c r="K86" t="s">
+        <v>628</v>
+      </c>
+      <c r="L86" t="s">
+        <v>629</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>619</v>
+      </c>
+      <c r="O86" t="s">
+        <v>60</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>535</v>
+      </c>
+      <c r="F87" t="s">
+        <v>630</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>631</v>
+      </c>
+      <c r="J87" t="s">
+        <v>632</v>
+      </c>
+      <c r="K87" t="s">
+        <v>633</v>
+      </c>
+      <c r="L87" t="s">
+        <v>634</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>606</v>
+      </c>
+      <c r="O87" t="s">
+        <v>60</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>535</v>
+      </c>
+      <c r="F88" t="s">
+        <v>635</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>636</v>
+      </c>
+      <c r="J88" t="s">
+        <v>632</v>
+      </c>
+      <c r="K88" t="s">
+        <v>637</v>
+      </c>
+      <c r="L88" t="s">
+        <v>638</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>639</v>
+      </c>
+      <c r="O88" t="s">
+        <v>107</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>535</v>
+      </c>
+      <c r="F89" t="s">
+        <v>640</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>641</v>
+      </c>
+      <c r="J89" t="s">
+        <v>642</v>
+      </c>
+      <c r="K89" t="s">
+        <v>643</v>
+      </c>
+      <c r="L89" t="s">
+        <v>644</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>645</v>
+      </c>
+      <c r="O89" t="s">
+        <v>60</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>535</v>
+      </c>
+      <c r="F90" t="s">
+        <v>647</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>648</v>
+      </c>
+      <c r="J90" t="s">
+        <v>649</v>
+      </c>
+      <c r="K90" t="s">
+        <v>650</v>
+      </c>
+      <c r="L90" t="s">
+        <v>651</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>645</v>
+      </c>
+      <c r="O90" t="s">
+        <v>107</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>535</v>
+      </c>
+      <c r="F91" t="s">
+        <v>652</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>653</v>
+      </c>
+      <c r="J91" t="s">
+        <v>654</v>
+      </c>
+      <c r="K91" t="s">
+        <v>655</v>
+      </c>
+      <c r="L91" t="s">
+        <v>656</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>645</v>
+      </c>
+      <c r="O91" t="s">
+        <v>196</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>535</v>
+      </c>
+      <c r="F92" t="s">
+        <v>658</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>659</v>
+      </c>
+      <c r="J92" t="s">
+        <v>660</v>
+      </c>
+      <c r="K92" t="s">
+        <v>661</v>
+      </c>
+      <c r="L92" t="s">
+        <v>662</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>645</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>535</v>
+      </c>
+      <c r="F93" t="s">
+        <v>664</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>665</v>
+      </c>
+      <c r="J93" t="s">
+        <v>666</v>
+      </c>
+      <c r="K93" t="s">
+        <v>667</v>
+      </c>
+      <c r="L93" t="s">
+        <v>668</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>645</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>535</v>
+      </c>
+      <c r="F94" t="s">
+        <v>669</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>670</v>
+      </c>
+      <c r="J94" t="s">
+        <v>671</v>
+      </c>
+      <c r="K94" t="s">
+        <v>672</v>
+      </c>
+      <c r="L94" t="s">
+        <v>673</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>674</v>
+      </c>
+      <c r="O94" t="s">
+        <v>60</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>535</v>
+      </c>
+      <c r="F95" t="s">
+        <v>676</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>677</v>
+      </c>
+      <c r="J95" t="s">
+        <v>678</v>
+      </c>
+      <c r="K95" t="s">
+        <v>679</v>
+      </c>
+      <c r="L95" t="s">
+        <v>680</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>674</v>
+      </c>
+      <c r="O95" t="s">
+        <v>107</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>63972</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>535</v>
+      </c>
+      <c r="F96" t="s">
+        <v>681</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>682</v>
+      </c>
+      <c r="J96" t="s">
+        <v>683</v>
+      </c>
+      <c r="K96" t="s"/>
+      <c r="L96" t="s"/>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="s">
+        <v>684</v>
+      </c>
+      <c r="O96" t="s">
+        <v>107</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>2</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_509.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_509.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="780">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>turnermhart</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>G7430TPjanetb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r575332062-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>Pleasant, stylish, quiet rooms with basic, but ample amenities.  Very clean and new.  Convenient to gas and many restaurants.  Breakfast was just ok.  Could have been improved with more protein options and real half &amp; half for coffee.  Still, an all-around great stay and value.More</t>
   </si>
   <si>
+    <t>N4019XLkathyl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r586108774-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>I will never stay at this location again.  Poor attitude of staff. Deadbolts inoperative. Mold in shower.  No fruit in breakfast area.  The beds were very comfortable. The new look is nice.  The service was not LaQuinta standard.  Please step it up a few notches.</t>
   </si>
   <si>
+    <t>Bubba D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r585734785-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>This hotel was a good stop after a long driveIt seems to be a newer remodel that is well appointed.  Sheets and bedding were clean, bathroom clean and a standard La Quinta breakfast.They have plenty of parking and it’s well lit.My only concerns are 1. The internet was very slow and went down every ten minutes.  I lost hours of work time2. For a newer buildout the house keeping seems to be overlooking detail items. Would now be surprised to visit next year and find it going downhill3. When I called the front desk for help they never answered. I went down stairs and waited 15 min and never saw anyone. Just gave upPrice was good and worth stopping to sleepMore</t>
   </si>
   <si>
+    <t>Daniel M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r585684363-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>I always try to stay at LQ when ever I travel. I know what to expect as far as hospitality and clean rooms. Even without a reservation I am always treated well. Breakfast is OK but wish they had a little more variety but is as good as most.</t>
   </si>
   <si>
+    <t>esters582</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r583858658-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t>May 2018</t>
   </si>
   <si>
+    <t>craigd352</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r583794330-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t>This hotel is located at the end of Carswell AFB runway.  You'll have loud jets taken off in the early evening.  It's close to the interstate and other attractions, but the jets will make you wonder if they're coming thru the building.</t>
   </si>
   <si>
+    <t>rosab5501</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r581341136-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -309,6 +333,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Stephenandlaurie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r580116896-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -324,6 +351,9 @@
     <t xml:space="preserve">The hotel was clean. The room was very clean and spacious.  Breakfast was adequate.  My only complaint s that the walls must be very thin. We could clearly hear the guests in the adjoining rooms,talking, as well as hear their alarm in the morning. </t>
   </si>
   <si>
+    <t>Ben R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r578675125-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -342,6 +372,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>sarahjd2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r557513378-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -369,6 +402,9 @@
     <t>The rooms were beautiful and very very clean! The customer service was outstanding and quick. It was very quiet and had good WiFi and channels to watch. They also have free breakfast which was very satisfying More</t>
   </si>
   <si>
+    <t>S4013UFkellyk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r556235557-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -387,6 +423,9 @@
     <t>I really like LaQuinta's, other than thin walls everything was nice and comfortable.  Our room was large and we are very happy that they allow pets. Could use some better directions for getting there but nice hotel good value for the money,More</t>
   </si>
   <si>
+    <t>David S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r555338623-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -405,6 +444,9 @@
     <t>I've enjoyed LaQuinta Hotels since they came east (Louisiana) about 25 years ago.  I'm sorry I have to rate you poorly.  And it seems like pricing was way too high.  There was a better variety of breakfast food, but the eggs were cold and the bacon greasy.  I'll shop around during my next visit.More</t>
   </si>
   <si>
+    <t>415arlened</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r552379275-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -423,6 +465,9 @@
     <t>I was looking for a hotel that was reasonably priced, that would provide a comfortable bed, a clean room &amp; bathroom and a good breakfast, and La Quinta popped up. I remember staying at a La Quinta many, many, many years ago and how enjoyable it was for me, so I decided to try it again and I was extremely satisfied with everything that the hotel had to offer. Thanks for a PERFECT STAY!!!!!! My husband and I enjoyed ourselves IMMENSELY (this was my husband's first experience at La Quinta and he was very impressed) !!!! GREAT HOTEL FOR COUPLES!!!!! Looking forward to another GREAT STAY!!!!!! THANKS AGAIN!!!!!!!More</t>
   </si>
   <si>
+    <t>nicolefZ5203TX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r551674784-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -441,6 +486,9 @@
     <t>This looks to be a fairly new establishment with a modern look. Guest will receive a hot breakfast, but it never seemed to be enough clean towels available. During our travel we experience plumbing issues that could not be repaired by maintenance during our stay.More</t>
   </si>
   <si>
+    <t>Nora T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r550465464-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -462,6 +510,9 @@
     <t>We had a very good experience at this hotel.  The staff was very courteous and professional. The room was very clean and spacious. I would highly recommend staying at this hotel. They are pet friendly. More</t>
   </si>
   <si>
+    <t>Geoff F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r547410351-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -486,6 +537,9 @@
     <t>We were a little disappointed with this La Quinta as we’ve stayed at many of their hotels.  The room was OK but we had problems with the bathroom.  Drain plug was jammed closed on arrival and toilet seat was loose and wouldn’t flush properly. After requesting repairs we came back to find it jammed open, the toilet seat fixed but still not flushing correctly.  We finally got the drain plug fixed but after four days, we couldn’t get the toilet to flush without three or more cycles of flushing.  Plus the breakfast was good every morning.  Do we won’t be staying at this La Quinta again.More</t>
   </si>
   <si>
+    <t>ElectricaRoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r547126442-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -504,6 +558,9 @@
     <t>The desk attendant was really accommodating and quick.  She got us checked in, even without a reservation, and on our way quickly.  The was pleasantly surprised by the recent renovation and cleanliness of the common spaces and the room. Breakfast was good too!More</t>
   </si>
   <si>
+    <t>Stephanie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r546892029-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -522,6 +579,9 @@
     <t>I liked this hotel.  It was clean, modern and the breakfast was good.  It was nice to have an indoor pool where the kids could go swimming.  The beds were nice and comfortable.  The whole hotel was also very quiet.More</t>
   </si>
   <si>
+    <t>scott n</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r546398013-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -540,6 +600,9 @@
     <t>Unpleasant stay. First night was in pet friendly room with urine saturated carpet. Stench was terrible but didn't notice until we were in bed.  Changed rooms and next 2 nights woke up during the night and in the morning to strong smell of cigarette smoke. Disgusting. After notifying desk, smell was not noticeable in room except in the bathroom. Smoke free hotel-what a joke. Friendly supportive staff was saving grace; management not so much.  Canned responses to these reviews...looks like we dropped the ball...and not willing to really make sure you're satisfied while you're there. No more LaQuinta for me.More</t>
   </si>
   <si>
+    <t>alann42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r526449151-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -567,6 +630,9 @@
     <t>Kida frustrating when traveling away from home and you look forward to little things on the road.  I check into the La Quinta and I get a slow elevator, a tread mill out of order (I'm in training for a marathon), there was no TV guide on the TV so I did not know what channel was what (Monday Night Football), for my wake up call there was only one phone in the room (the one phone was not by the bed but by on the desk).  On top of that there was only 5 restaurants that delivered (3 Chinese and 2 Pizza ... hint do not order the Chinese).More</t>
   </si>
   <si>
+    <t>ceburress5315</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r522393363-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -594,6 +660,9 @@
     <t>Would not recommend anyone stay there as the management were very rude and unwilling to cooperate with the FEMA guidelines as advertised on FEMA website. The Assistant Manager was adamant we had to leave immediately, although we had broken no rules and had tried to make the best out of our evacuation from our home.  As long as billing was on my credit card, they were gracious, however, when they were told it became a FEMA situation we were treated with disdain.  Would not recommend this location to anyone traveling through Fort Worth! More</t>
   </si>
   <si>
+    <t>skylanders</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r519465311-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -618,6 +687,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>37jimmiej</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r515461594-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -642,6 +714,9 @@
     <t>My wife and I require handicapped accessible room. It was disturbing to discover that rooms are located at the extreme end of hallways requiring long walking for each of us. We entered the room to find that the ac was not on and the room was hot and humid, to the point that every surface, including  beds felt damp.More</t>
   </si>
   <si>
+    <t>Michael T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r513937231-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -669,6 +744,9 @@
     <t>Stayed at this hotel only one night with my girlfriend. The room was pretty nice and it had an indoor pool and hot tub which wasn't bad. pretty cheap for what you get. Would stay here again if needed.More</t>
   </si>
   <si>
+    <t>2antigua</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r510032976-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -696,6 +774,9 @@
     <t>I found this hotel to be close to the highway and was always clean.The room was done every day with no complaints. I never saw the carpets looking bad and there was only one issue I had and that was that the breakfast location was not opened up until a few minutes after 6 am every day. To be honest this breakfast it nothing that you have to wait for because it is as basic as they come. All in all a nice hotel to stay at.More</t>
   </si>
   <si>
+    <t>MrTravelTalker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r505648020-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -720,6 +801,9 @@
     <t>Navigated through cigarette smoke to enter property.  Hallway carpets in need of care.  No bath towels in our room (and no offer to bring them to us when notified).  Messy breakfast seating area.  View of the crusty motel next door from our room.  Not good.More</t>
   </si>
   <si>
+    <t>txcruiser78660</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r502374624-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -744,6 +828,9 @@
     <t>This hotel was clean and convenient to the cultural district.  It was also very close to the Naval Air Station and during the day the noise of jets taking off was very noticeable.  To me it is the sound of freedom but if you want to sleep during the day you would not be happy.  Very quiet at night though.More</t>
   </si>
   <si>
+    <t>Nancy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r501966962-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -762,6 +849,9 @@
     <t>I stayed at the La Quinta Inn and Suites Fort Worth West I30 as it was close to my friend's house who I was visiting.  I usually stay at La Quinta as I travel with my small dog and they don't charge extra for pets.  The hotel was very clean and the beds were comfortable.  The only negative was that when I went down for breakfast a little after 7 there was gravy but no biscuits.  The breakfast room was kind of a mess.  I thought it kind of strange since they had just started serving breakfast at 6 and was continuing until 9.  When I checked out I mentioned to the desk clerk that the breakfast room needed some attention and that there were no biscuits. She just said, "what is it that you need?"  She handed me my receipt and said nothing else.  She didn't ask me how my stay was or thank me for staying.  This is very unusual as usually desk clerks are a lot nicer.  I asked her her name and she would not tell me.  Not sure if she was just starting her shift or ending her shift but she might think about getting in another line of work!More</t>
   </si>
   <si>
+    <t>Beth F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r500401543-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -786,6 +876,9 @@
     <t>The room was clean and well appointed with a fridge, microwave, coffee pot and plenty of towels. The bed was extremely comfortable, with tons of pillows! The employees were gracious and very helpful. I really enjoyed my stay and will come back again.More</t>
   </si>
   <si>
+    <t>Raggioapps</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r499762065-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -810,6 +903,9 @@
     <t>We stay at this property twice a year for horseshows.  The staff is friendly and welcoming.  I would definitely recommend this location for business or pleasure.  The breakfast was great, perfect location.  More</t>
   </si>
   <si>
+    <t>lala3248</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r496995610-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -837,6 +933,9 @@
     <t>Stayed there 3 nights. After my stay they contacted me that I left my reading glasses in my room. They were able to ship them to my home in Chicago. I was very impressed how they went out of their way to help me. The staff was so friendly and helpful!More</t>
   </si>
   <si>
+    <t>711royal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r496408940-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -861,6 +960,9 @@
     <t>This is a typical La Quinta.  Well maintained, clean, roomy.  Easy to get in and out of.  Convenient for where I need to go for work.  Sometimes they offer cookies in the afternoon which are great.  Didn't get them this trip.More</t>
   </si>
   <si>
+    <t>Craigh-KRPH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r495865567-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -885,6 +987,9 @@
     <t>I'll keep it short and sweet.  If you are looking for an easy to access location, free breakfast and relatively inexpensive stay, this place may be for you.  Complaints:  1.  Paper thin walls, could hear our neighbor coughing all night.2. Black out curtains didn't work too well.  Parking lot lights lit up room way too much.3. Shady area - strip joint in view right outside our window, and some guy in the parking lot cat-called my wife. 4. Coffee at free breakfast is Nescafé instant.Probably won't be returning.More</t>
   </si>
   <si>
+    <t>V4262ZKjuanv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r495298460-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -906,6 +1011,9 @@
     <t>Everything was great, amazing stay, &amp; great location in the Fort Worth area. There are other hotels near the area, &amp; I always stay at this location. Best price, easy check in &amp; easy check out. I will always come back to this hotel.More</t>
   </si>
   <si>
+    <t>Brittany C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r491831327-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1038,9 @@
     <t>My family and I arrived to the hotel only to discover that the double bed room we booked was not available so we had to settle for a 1 bed room with a sofa bed and an extra cot that was extremely worn out but when we got to the room we had to switch rooms because the sofa bed was stuck, switched to another room that smelled like feet and was very stuffy the most horrible part was getting bite by fleas we all had little red itchy bumps on our feet and ankles and not to mention we had a 3 year old and 2 month old in the room I did not know that this hotel was pet friendly until later that night when we seen a dog in the lobby even if pets are allowed guest should not be getting bite by fleas!!!!!!!!!!! UNEXCEPTABLE!!!!!!More</t>
   </si>
   <si>
+    <t>cmarchbank</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r491145279-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -954,6 +1065,9 @@
     <t>Reservation was to be for an ADA Wheelchair room with roll in shower.  They did not have that room.  We took a room with a tub and luckily brought a shower chair.  Harder for dad but would make it work.  The next day the room wasn't clean.  I had asked in the morning to have toilet seat fixed.  Maintenance confirm he had fix but it wasn't.  Housekeeping, maintenance and Management were all gone at 4 p.m.  Manager was called and came to motel wanted to find us another motel.  Told him I didn't want to move it was to hard on dad who is a 79 year old veteran that is a double amputee(missing both legs above the knee) with limited use of arms.  Wanted me to sign paper if we stayed that would get no refund.  I never asked for one.  Final result we were kicked out.  All I wanted was to make manager aware and get toilet fixed.  Manager did state it was about the money and if I complained to corporate it would go against him.  More</t>
   </si>
   <si>
+    <t>CDM49</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r490340927-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -978,6 +1092,9 @@
     <t>Friendly, Clean, Modern, Convenient to intestate, restaurants and our areas of interest. This was our first stay at this hotel and plan to stay here again on our next visit to Fort Worth as we come here several times a year. Check in was quick and easy, our room was up to date and very clean only issue was the toliet as it took several flushes to clear. Reported this to the desk an reception stated it would be fixed. Nice dog area in back with bags and thrash can. Breakfast was standard for La Quinta. Plenty of free parking available.More</t>
   </si>
   <si>
+    <t>jerryp654</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r491658296-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1122,9 @@
     <t>The hotel staff was amazing, very helpful and very friendly! The hotel room was super clean and the beds were comfy! The BEST thing is the AC cranked down low! The breakfast was ready early in the morning and was very tasty!More</t>
   </si>
   <si>
+    <t>D1746BNshaneb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r491658148-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1023,6 +1143,9 @@
     <t>We had a medical situation and had to be in Fort Worth, but we have 2 dogs, and didn't want to board them somewhere. Actually the night before, the boarder lost one of our dogs so we called and asked for a special request to check in 3.5 hours early so we could go to our medical appointment and leave the dogs in our room. They were very helpful! We arrived the next day at 1130 AM and unloaded our bags and dogs, went to our appointment and had a worry free stay.  The hotel itself is very nice and new.  There is decent green space for pets and we had no problems finding a place for them.  Overall, we were very pleased and will be staying here every time we need to stay in Ft Worth.More</t>
   </si>
   <si>
+    <t>leticiam747</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r491658183-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1038,6 +1161,9 @@
     <t>No one was around when I arrived to check-in. The individual who checked me in was sitting in the lounge area and did not great me immediately. I did not not this individual worked at the hotel. They were not wearing anything indications they worked for La Quinta. The room decor was very nice and appealing. The room and the bathroom were very clean. It was cool outside when arrived and the heating worked well in the room. The toilet had horrible pressure. It was extremely loud every time it was flushed and it had to be flushed several times each time and every time. The insulation needs to be improved, all hallway noise could be heard. The pool is quite small and enclosed, feels claustrophobic.More</t>
   </si>
   <si>
+    <t>HarvestRN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r477496567-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1062,6 +1188,9 @@
     <t>The hotel was just as pictured, large and modern. Room was very spacious. The hotel did have an odor in the hallway the night I arrived. I travel with my dog so I stay at a lot of LaQuinta Inn's and typically don't notice any odor. Unsure if this was a pet odor or coming from the gym, but the next morning it smelled fresh and clean. Staff was nice and breakfast was hot. Would stay here again. More</t>
   </si>
   <si>
+    <t>T5BZdennish</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r491658054-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1080,6 +1209,9 @@
     <t>It is a fairly new hotel and most of the staff is very good but there are some that leave a little to be desired. The rooms are nice, the pool is indoor but very small. the breakfast is acceptable, nothing to write home about, but filling.  This is my third visit there and I am always satisfied.More</t>
   </si>
   <si>
+    <t>kevinwT2650SX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r491659330-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1098,6 +1230,9 @@
     <t>Having stayed in this hotel April 2016 I arranged the same time April 2017 but the hotel had gone down hill with towel showing obvious wear like one might use in a  car wash.  The entrance and elevator were obviously dirty and room needed repair. For the price I was dissatisfied.More</t>
   </si>
   <si>
+    <t>Maribel B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r491659394-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1119,6 +1254,9 @@
     <t>This La Quinta location took very good care of us, after we were displaced from our home due to electrical repairs. It was also our wedding anniversary, so they upgraded our room at no extra cost. Very nice and modern, nice upgrades and commodities.More</t>
   </si>
   <si>
+    <t>509treyr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r491658895-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1278,9 @@
     <t>Great clean facility, the rooms were very well kept and good condition.  Shower didn't have a lot of pressure, but did the job. Hotel staff was very friendly and personable. Breakfast had many options and lots of room to sit around with family. I'd recommend this hotel for future staysMore</t>
   </si>
   <si>
+    <t>Ahmet Gamze D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r446393891-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1161,6 +1302,9 @@
     <t>We stayed on here. Not good location Not good recepcion Not good breakfast. Not good price. But good rooms...........I did not like the way guests get room rates.The receptionists were not fully informed.More</t>
   </si>
   <si>
+    <t>paulculnan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r445631870-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1182,6 +1326,9 @@
     <t>I had a nightmare night here due to a party going on in the next room. Staff would/could not do anything to help. Management will not respond to my repeated requests for a refund. But on the good side, the afternoon cookies are tasty.More</t>
   </si>
   <si>
+    <t>AustinJudith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r443804501-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1200,6 +1347,9 @@
     <t>First the positives for this hotel - it was very well situated for what we wanted to do in Ft Worth (near museums); it is only 2 years old, so still in very good shape; and the mattress was firm and to our liking. Here are the negatives - the walls are paper thin! We could hear every word our neighbor said and follow the tv show he was watching. During the night, he snored and needless to say I picked up on other sounds. The bathroom isn't laid out well. The sink is set in about 6" from the edge, so I found it uncomfortable to use. The reach for the toilet paper requires long arms which I don't have. I won't stay here again.More</t>
   </si>
   <si>
+    <t>leroys73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r432281290-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1224,6 +1374,9 @@
     <t>Very clean, reasonable for the area, somewhat easy to find, places to eat nearby, reasonably close to the zoo and other activities.  Our room had two queen beds and was larger than most.  I just don't understand when a room is made so it will sleep 4 people and there are only towels and wash clothes for 3.  This room did have 4 bath towels but only 3 face and hand towels.  It was enough for us and I am sure I could ask for more but why should I have to ask.  The frig was larger than most.More</t>
   </si>
   <si>
+    <t>GuyBluff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r421183349-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1245,6 +1398,9 @@
     <t>I have stayed in a number of Hotels and La Quinta.  Great service, Clean, Quite Location.  Would return to this location next time I am in Ft Worth.  Owner was pleasant at all time.  Provided matching rate on room price when I had to extend my stay which was appreciated.More</t>
   </si>
   <si>
+    <t>gregaustex</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r420179207-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1263,6 +1419,9 @@
     <t>I really wanted to like this hotel because I frequently visit Fort Worth. The first impression was very good, the lobby is sleek and modern and the exterior is clean and well kept. The room was very clean and looked to have been recently refurbished. However, we suffered through two hours of on-and-off satellite reception with no help from the main desk. Finally we gave up and went to sleep after trying to watch a football game on ESPN. We awoke to very loud guests above us at 5 a.m. The sound deadening at this hotel is poor. For what I paid for this hotel stay, I'll look at other hotels again before returning to La Quinta.More</t>
   </si>
   <si>
+    <t>cansweep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r413260349-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1284,6 +1443,9 @@
     <t>I was trying to make complicated reservations for several people coming to town from many different directions.  Alicia was so helpful.  She went above and beyond to make sure everything is in order for when we all arrive.  I know it will be a very happy and successful trip.More</t>
   </si>
   <si>
+    <t>Don M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r403789008-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1308,6 +1470,9 @@
     <t>We have stayed often at La Quintas for economical family travel. The New and Improved La Quinta was definitely a step up! Everything is bigger and better. We saw it when we walked in the door. The lobby area and breakfast area are spacious, open, and inviting. The rooms are larger as well. We also liked the indoor swimming pool. It's just too hot in August to swim outside. :-)  The A/C was great! One little thing that showed attention to detail was with the curtains over the A/C. They came down to just over the top exactly where they should be. Too often, the curtains cover the A/C vents and become a big bother. But here, they were exactly right.The location is great, only a few minutes away from downtown, W. 7th Street, the Museum District, and the Stockyards at a bargain price.The real test of a lodging place is when something goes wrong. Our grandson became sick in the middle of the night requiring a complete change of linens. Christina Flores was on duty and was quick and helpful in getting us fresh linens. I made a couple of trips to the desk and she got what we needed without delay. We are grateful to her and the other staff for their kind assistance when we needed it.  Thanks y'all!Oh. And our grandson is fine today. Maybe just a little too much fun for him.More</t>
   </si>
   <si>
+    <t>Debra N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r401033328-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1326,6 +1491,9 @@
     <t>Right off Hwy 20 in west Ft Worth. A new and clean location that is well lit and accepts pets. Sign up for LaQuinta Rewards to accumulate nights for a free night, free wifi and breakfast. They accept AARP for additional discounts! Not far from Camp Bowie dining, located in the Ridgmar Mall area.More</t>
   </si>
   <si>
+    <t>scm0105</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r390070251-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1347,6 +1515,9 @@
     <t>I booked a night to get away from the stresses of home and to get work done but that was not the case. Check in way too long after signing so many papers, I got to my room only to find a dirty floor, hair in the corners of the room, dirty sheets and torn carpet. I thought this was new hotel? I didn't bother to call as I was only there to do work. Around 11:10pm, the fire alarm goes off. I understand incidents happen but after an 1 hour of it going on, clearly no one knew how to operate the system. I call the front desk, no answer. I pack my bags to check out and I stand at the desk for 15mins and no one shows up So I left. I call back a day later to talk to the GM, she wasn't there and was told that wouldn't be there until the weekend. What kind of manager does that? GMs should be at the property at the minimum during the weekdays! The staff is rude and the lady I spoke with on the phone was rude. I finally had to call consumer relations with La Quinta and FINALLY I got an email. The management promised a refund and after two attempts I still have not received my refund. $130 for 4 hours of nonsense in a room that I wasn't able to enjoy. Way to...I booked a night to get away from the stresses of home and to get work done but that was not the case. Check in way too long after signing so many papers, I got to my room only to find a dirty floor, hair in the corners of the room, dirty sheets and torn carpet. I thought this was new hotel? I didn't bother to call as I was only there to do work. Around 11:10pm, the fire alarm goes off. I understand incidents happen but after an 1 hour of it going on, clearly no one knew how to operate the system. I call the front desk, no answer. I pack my bags to check out and I stand at the desk for 15mins and no one shows up So I left. I call back a day later to talk to the GM, she wasn't there and was told that wouldn't be there until the weekend. What kind of manager does that? GMs should be at the property at the minimum during the weekdays! The staff is rude and the lady I spoke with on the phone was rude. I finally had to call consumer relations with La Quinta and FINALLY I got an email. The management promised a refund and after two attempts I still have not received my refund. $130 for 4 hours of nonsense in a room that I wasn't able to enjoy. Way to go, you surely lost a guest for life.More</t>
   </si>
   <si>
+    <t>Roger F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r386797388-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1374,6 +1545,9 @@
     <t>The staff is always pleasant and rooms are clean and comfortable.  Many eating places nearby and close to Fort Worth but yet just enough outside the busy streets and crowds.  Parking is a little strange.More</t>
   </si>
   <si>
+    <t>trcastor01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r384272048-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1395,6 +1569,9 @@
     <t>The hotel appears nice from a distance, however there are things to be aware of before booking here. The lobby, hallways etc did not appear to be vacuumed any time recently, there were stains in the carpet. This hotel was built not all that long ago, which made all of this even more surprising. The drain in the tub was broken, I hate to see how it will look after it has been opened a few years. We will not be staying here again  any time soon. More</t>
   </si>
   <si>
+    <t>applestrudel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r371423783-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1413,6 +1590,9 @@
     <t>I booked this hotel through Hotwire.com for $64 plus tax, so I have to be honest I really wasn't expecting much at all.Totally surprised, hotel is only 2 years old. Really nice modern decor in shades of black, gray, white and lime green.Rooms - a good size, nicely appointed. Bed I felt was very much on the hard side but I guess that's down to personal choice. The bathrooms had a nice large walk in shower. Towels were paper thin and on the rough side but for the money not bad.Breakfast was as you would expect, the usual hotel free breakfast standard Great location right of I30 and a short 15minute commute into Fort WorthNice clean modern hotel, I wouldn't hesitate to stay here again More</t>
   </si>
   <si>
+    <t>H1510FAwilliams</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r366995594-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1434,6 +1614,9 @@
     <t>Stayed at the new La Quinta in west Fort Worth while up for the Texas vs. TCU football game. Completely different than any La Quinta I've ever stayed in and I'm a pretty loyal La Quinta customer (because they are so pet friendly.)This is the most uniquet, most contemporary La Quinta I've ever seen or stayed in.Rooms were extra spacious - being new everything was "fresh" - the breakfast was good with a nice selection of breakfast foods, more like what you'd find at a Residence Inn.  Employees were nice - I have nothing bad to say - I'll be back.More</t>
   </si>
   <si>
+    <t>jhockson48</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r362040102-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1455,6 +1638,9 @@
     <t>Great staff, excellent stay. Very accommodating and close to all my business venues Convenient to major highways Wonderful place to stay!  I highly recommend this hotel clean and very quite Enjoyed staying here overallMore</t>
   </si>
   <si>
+    <t>Luna1021</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r361032288-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1473,6 +1659,9 @@
     <t>Drove up from Chicago with our two teenaged girls.  Booked a king room with an attached two double bed room, so we could all have a little privacy but be close to the girls.  The hotel was super clean and modern.  The rooms were large and comfortable, and the hotel was super quiet.  The staff was professional, friendly and incredibly helpful.  We stayed for 4 nights.  The location was convenient to downtown Ft. Worth, Sundance Square, the Stockyards, Zoo, etc.  Breakfast was good and had a nice, though small indoor pool and Jacuzzi.  Great value and perfect location for us as we did not want to be right downtown.More</t>
   </si>
   <si>
+    <t>Gibraltar96</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r357265454-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1491,6 +1680,9 @@
     <t>The front desk Mgr was great and she worked very hard and was polite. Something needs to be done so the room doors don't slam close. The room walls shake when this happens and affects overall stay. Water pressure in shower too low.More</t>
   </si>
   <si>
+    <t>Jessica R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r353941977-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1509,6 +1701,9 @@
     <t>We stayed here for one night and it was great, the hotel even smelled new, maybe it is I don't know but it was clean and smelled nice. The breakfast area was nice and clean too food was good. I have no complaints with the actual hotel. The drunk people in the room two rooms down... well that is another story. Going back in a few weeks and will stay in the same hotel!More</t>
   </si>
   <si>
+    <t>Daniel P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r350803325-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1530,6 +1725,9 @@
     <t>Dog barking at night in one room and TV so loud in another had to wear ear plugs to sleep my room was in between and this was at 1 a.m. never again, $195 for 2 nights definitely not worth it! I want be staying again More</t>
   </si>
   <si>
+    <t>Randal P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r340534978-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1551,6 +1749,9 @@
     <t>Great, clean rooms! Awesome customer service. The breakfast was wonderful. The rooms contain all basic necessities. Microwave, coffee maker, refrigerator, etc. probably one of the best stays I've ever had. I will definitely recommend!More</t>
   </si>
   <si>
+    <t>Keylan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r340533517-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1566,6 +1767,9 @@
     <t>Great hotel and would be my first choice! Service was great. I have no complaints about anything. Food was good and ready bright and early. Rooms were perfect. Very clean and nice hotel compared to the competitors. When I visit Fort Worth I will definitely stay here.More</t>
   </si>
   <si>
+    <t>king0fw0rld</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r334877160-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1587,6 +1791,9 @@
     <t>Nice room. Every basic things are available in room like microwave, fridge, Coffee maker. Good bed. Had a very pleasant stay. Breakfast is good and hot. Great room service. Front Desks were helpful, always ready to help.More</t>
   </si>
   <si>
+    <t>Happy2se</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r334595076-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1605,6 +1812,9 @@
     <t>We travel with our pet chihuahua &amp; love the warm acceptance we receive. Our King room was clean &amp; spacious. The bed was so comfy &amp; room was attractive.  Thank for the great stay, we will be back again.More</t>
   </si>
   <si>
+    <t>David V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r331788289-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1621,6 +1831,9 @@
   </si>
   <si>
     <t>I travel all over the state and I have never stayed anywhere where they know me by name except here at La Quinta on Calmont. Alicia, at the front desk is awesome!  She always greets me by my first name with a smile. My room is clean and comfortable, coffee is excellent and the gym is top of the line. My plans are to stay here anytime I'm in Fort Worth. More</t>
+  </si>
+  <si>
+    <t>Dianne47</t>
   </si>
   <si>
     <t>06/15/2018</t>
@@ -1653,6 +1866,9 @@
 The design and grading of the parking lot outside the south entrance to the hotel doesn't allow for proper runoff of rain, there a hill that runs water right to the door with no drainage at all. The first night we were there the rain started coming in the glass entry door. A large water...We were visiting family over Thanksgiving in Ft. Worth. We chose this location due to good reviews and proximity to our son's home. During our stay Ft. Worth was receiving downpours of rain. Unfortunately, this greatly affected our 3-night stay at this La Quinta.The hotel appears new and fresh from the exterior. We requested a ground-floor room due to ease of walking our dog, who always travels with us. I'm a La Quinta Elite rewards member (25+ nights/year), so I am VERY familiar with this hotel chain. I was not given the standard welcome amenity (bottled water and a snack) and, in fact, the entire stay was far below La Quinta standards.The double queen room was large and comfortable. There was a large open area near the exterior window which easily could have accommodated a sofa or loveseat. Instead there was one small chair. I asked for one extra luggage rack (is that SUCH an odd request?) and was told there wasn't one available and the front desk clerk acted like I had asked him to run an errand for me across town.The design and grading of the parking lot outside the south entrance to the hotel doesn't allow for proper runoff of rain, there a hill that runs water right to the door with no drainage at all. The first night we were there the rain started coming in the glass entry door. A large water extraction machine was being used in the hallway outside our room, with several staff loudly talking and shouting at each other over the very loud noise of the machine. This became worse on the second night, both nights there was extreme noise at both 11:30pm and 2am! We repeatedly stuck our heads out to ask for quiet and were ignored.On the morning of our last night we were rudely asked to move to the third floor. The desk clerk had the nerve to complain that she had been calling our room all morning and we didn't answer. No assistance whatsoever was offered for this very inconvenient move. Several other guests were moving and, since the hotel only has two small airport-type luggage carts, we were forced to wait. This took precious time away from our short family visit.Although the rooms in this hotel were well-appointed, the hanging rack in the first room literally fell off the wall when we placed coats on it. When I notified the front desk I was told we would have to move. The bathrooms in both rooms had the absolute worst tiling job I've ever seen, it looked like a 12-year-old had done the work. We were offered absolutely no compensation for our inconvenience (extra rewards points and/or a reduction in room rate would have been appropriate). I had to reprimand the maids in the hallways multiple times for shouting at each other, what hotel guest wants to listen to that? The front desk staff, EVERY time I encountered them, were unwelcoming, unhelpful, or worse.The one positive note was the breakfast selection was good.I absolutely, positively would NOT stay at this hotel again. The front desk staff, every one of them, acted as if guests were inconveniencing them if they even made the most simple request. This hotel is definitely not up to normal La Quinta standards. If it's raining, DEFINITELY don't accept a room on the ground floor. The volumes of water oozing into the hallway and subsequent water-extraction noise, well, we should've checked out after the first night and gone elsewhere.More</t>
   </si>
   <si>
+    <t>BruceRBJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r329933388-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1674,6 +1890,9 @@
     <t>Nice hotel, but wish they would use soft white lighting in the rooms. The flourescent lighting is cold and depressing. It's was new and clean. Good service. The staff was friendly and the allow pets. Very nice    More</t>
   </si>
   <si>
+    <t>Bob B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r329598069-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1692,6 +1911,9 @@
     <t>I knew something was up when, at the time of check-in, I was asked something I'd never been asked before at a hotel -- "sir, how many pets do you have?" Of course, the answer was none. It turned out that there was a barking, crying dog in the room right across the hall from mine. This went on for an hour and a half during the evening while I was in my room. After 3 requests by me to the front desk, the guests in that room got the dog to be quiet. If you're a normal traveler, stay away, If you have dogs with you, you might like it.More</t>
   </si>
   <si>
+    <t>SavvyM0m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r324962969-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1710,6 +1932,9 @@
     <t>This is our second night at this hotel.  We specifically chose it based on the rave customer service reviews, and because it had an indoor "heated" pool and spa.  We are in town for just a couple of days and we wanted to pick a place that was family friendly and where our children could enjoy the pool.  The "heated" pool and the spa were both cold.  The kids only swam for a little while the first night and have not asked to go back.   The customer service fell very short.  I just went downstairs with my toddler looking for filtered water.  I knew there was filtered water in the breakfast area and was hoping to get him a cup.  I walked up to the front desk and there was no one there.  I looked over in the corner and there were 2 employees with their feet up on the wall and both of them were on their phones.  I asked if it would be possible to get some water from the breakfast area or if there was another filtered water station in the hotel.  I was told there was a water fountain in the downstairs bathroom.  At no time did either of them get up to address me or pay me the courtesy of putting their phones down.  A water fountain in the bathroom didn't sound appealing, so my husband ended up going to a nearby gas station to...This is our second night at this hotel.  We specifically chose it based on the rave customer service reviews, and because it had an indoor "heated" pool and spa.  We are in town for just a couple of days and we wanted to pick a place that was family friendly and where our children could enjoy the pool.  The "heated" pool and the spa were both cold.  The kids only swam for a little while the first night and have not asked to go back.   The customer service fell very short.  I just went downstairs with my toddler looking for filtered water.  I knew there was filtered water in the breakfast area and was hoping to get him a cup.  I walked up to the front desk and there was no one there.  I looked over in the corner and there were 2 employees with their feet up on the wall and both of them were on their phones.  I asked if it would be possible to get some water from the breakfast area or if there was another filtered water station in the hotel.  I was told there was a water fountain in the downstairs bathroom.  At no time did either of them get up to address me or pay me the courtesy of putting their phones down.  A water fountain in the bathroom didn't sound appealing, so my husband ended up going to a nearby gas station to get bottled water. We have yet to meet Ms. Alicia or experience the great customer service everyone else raved about.  We will see how breakfast in the morning goes, but based on tonight, don't think we will be staying here again.More</t>
   </si>
   <si>
+    <t>yazalc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r324157235-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1734,6 +1959,9 @@
     <t>Excellent place, nice staff, clean, near to a lot of nice places. If English were my native language, I would have written more, but I can't think of any other synonyms for excellent. Margaret was really kind, the room was clean and breakfast was delicious.More</t>
   </si>
   <si>
+    <t>lharr451</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r301323774-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1755,6 +1983,9 @@
     <t>From the moment I walked in the staff was welcoming and super helpful. The place was very nice and modern. The room was decorated beautiful and very clean. AC worked great and it was cold. The property was very well maintained. The beds were so comfortable bathroom very clean, frig and coffee maker worked well.This is a place you really want to stay. I give it a 10.More</t>
   </si>
   <si>
+    <t>1EyeWally</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r298610687-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1773,6 +2004,9 @@
     <t>We enjoyed our stay! The hotel still smells new. Our room was very clean and we had a comfortable bed. The a/c works great! We had a walk in shower (no tub) &amp; the shower doors fell off when sliding them open. The very nice girl at the front desk sent the maintenance man up to fix it. We had to jiggle the handle of the toilet after flushing to stop it from running loudly, but no big deal! We will definitely be back !More</t>
   </si>
   <si>
+    <t>Bobby S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r294174192-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1794,6 +2028,9 @@
     <t>Anthony Chamberlain and his staff are totally awesome.  Rooms are exceptionally clean, staff is very accommodating.  My stay here during my recent retirement was great for me and my family.  I would strongly recommend this La Quinta Inn for your stay in Fort WorthMore</t>
   </si>
   <si>
+    <t>NATIVETEXANLUBBOCK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r294055020-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1809,6 +2046,9 @@
     <t>Over all hotel is clean comfortable beds everything in room worked only complaint would be that as with all newer hotels walls thin room was on second floor &amp; felt as if people above us would come crashing in from above.Noise level not kept out of room.Could hear people talking doors slamming kids running up and down halls.Only complaint is was traveling with a person who needed a handicapped room.Called hotel was told they only have 3 handicapped rooms luckily it wasn't too much of a problem as tub was not too high but bed was.We probably would not stay again due to the number of dogs staying @ hotel.More</t>
   </si>
   <si>
+    <t>Michael L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r292940541-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1827,6 +2067,9 @@
     <t>Staying there on our second day. New property. Nice location just out side the city. Very clean. Cool pool inside. would recommend it to people that like to stay out side the city with quick access to everything. Great price for a good deal.More</t>
   </si>
   <si>
+    <t>Kimb1405</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r279501159-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1848,6 +2091,9 @@
     <t>We have stayed at this hotel several times and well do it again it was close to shopping and food the pool was very nice indoor the breakfast bar was full of great the beds were we the best we have slept onMore</t>
   </si>
   <si>
+    <t>Silver925</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r277403659-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1866,6 +2112,9 @@
     <t>Easy to get to the stockyards and the museums.  Good typical West Texas cafe (The West Side Cafe) nearby for supper or breakfast.  New facility.  Wifi was slow; each key stroke was followed by a length pause.  Easy access to interstate, but my room was quiet.More</t>
   </si>
   <si>
+    <t>markmX7247ZA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r274929762-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1884,6 +2133,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Sam H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r273845415-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1899,6 +2151,9 @@
     <t>Staff, especially Anthony, made our stay very enjoyable.  I highly recommend this hotel.  The rooms were nice but what made the difference was the high level of customer service.  Anthony went out of his way to make sure we had a pleasant stay.</t>
   </si>
   <si>
+    <t>Jerilyn B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r271954927-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1914,6 +2169,9 @@
     <t>Nicely decorated. Was located great for all the places we needed to go such as the downtown convention center, TCU and the the Pet Smart Hotel on Bryant-Irving Blvd. they had a great breakfast that even included scrambled eggs and bacon along with the usual.Only complaint was the shower doors stuck and were hard to slide. Since everything appears to be recently installed they should have the installer out to check on them.</t>
   </si>
   <si>
+    <t>Mrfamilyvacation</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r266509114-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1929,6 +2187,9 @@
     <t>My daughter and I stayed at this newly refurbished hotel last week before attending a TCU orientation. Although in an older area of Fort Worth, everything about this property is new. Good water pressure in showers, fresh paint, clean carpet, crisp bedding, well lit, smells good, etc. I liked the small but well furnished workout room. Even the grass around the property is new and green. Breakfast is limited but has foods that we like to eat - boiled eggs, cereals, pastries and fresh waffles. Excellent value for the price.</t>
   </si>
   <si>
+    <t>Bill T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r266439948-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1942,6 +2203,9 @@
   </si>
   <si>
     <t>December 2014</t>
+  </si>
+  <si>
+    <t>ethansmom06</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r263885644-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
@@ -1969,6 +2233,9 @@
 The room was very clean. Everything was in working order. The room included a fridge and microwave as well. Both were clean and in working order. Bathroom was very clean but the toilet always had to be flushed multiple times for...My son and I stayed on night on March 25th. Overall it was an ok stay and met my needs but the staff needs retraining on customer service.We arrived at 1630 and there were several guests ahead of me. Check in was painfully slow as there was only one clerk doing the check ins. Another clerk was doing something on the other computer and never stopped what she was doing to assist with check in. The woman doing the check ins was too busy complaining about how it was past her time and that she should've been off 30 minutes ago. All she did was complain. Not very professional and your guests do not care what time you  get off. Keep your complaining to yourself. When it was finally my turn, she never greeted me and her only words to me were to ask me what kind of room I wanted. I told her I wanted something AWAY from the elevators and ice machines and she gave me a room right by both. I could hear the elevator and ice machines in my room as my room was right by both. Not very happy about this at all. The room was very clean. Everything was in working order. The room included a fridge and microwave as well. Both were clean and in working order. Bathroom was very clean but the toilet always had to be flushed multiple times for some reason. The water pressure was horrible in the sink and the shower was only marginally better. But atleast it was clean. The mattress was comfortable but the entire bed squeaked every time I   moved even slightly. I don't know what was causing it but the other bed was not squeaking at all. The lobby was clean and modern but the airport style luggage carts are useless. They need to be replaced with the larger, hotel type carts. This is the 3rd LQ I have stayed at with these types of carts. Get rid of them. We left for dinner and came back. There were two employees at the front desk. No one greeted us when we returned. One was on a personal cell phone and the other was just standing there. Not very professional at all. The hotel is kind of hidden but that is good because you don't hear all the freeway noise. Easy access to 30 and other Fort Worth freeways. We did not eat breakfast but it looked like typical LQ fare. The wi fi was decent and free. It was adequate for web browsing.I like the newness of the property but the lack of customer service is really off putting. i tried to mention the toilet and the bed issues to someone when we left but after waiting 10 minutes in the lobby for someone to show up I just left. There was a housekeeper cleaning windows and I asked if there was anyone at the front desk and she just shrugged her shoulders and walked off. Like I said...total lack of customer service. I would only return if had I had no choice.More</t>
   </si>
   <si>
+    <t>John C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r261638782-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1984,6 +2251,9 @@
     <t xml:space="preserve">Newly built in Dec 2014, I had a very relaxing stay and this was due to the firm but comfortable bed, good water pressure during a shower, always had clean towels, ease of access to elevators. If there needs to be any gripes at all then of course the continental breakfast is light but good. </t>
   </si>
   <si>
+    <t>Jennifer S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r261373918-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2002,6 +2272,9 @@
     <t>Apparent new construction from newly laid sod and crisp, fresh decor throughout lobby and guestrooms.  My room was very large, clean and comfortable.  Arrived and when I tried to check in, I waited about 5 minutes while phone lines rang,  answering machines answered phones, etc.  No one showed up, so I left to meet friends for dinner.  When I went back a few hours later, a very nice and apologetic young gentleman helped me check in.  He said they were a bit short staffed, which coupled with the obvious new appearance explains the large banner advertising for applicants.   Convenient location to many Fort Worth sites.  Road construction makes it a bit tricky, but would definitely stay again.  More</t>
   </si>
   <si>
+    <t>Michael S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r261173253-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2020,6 +2293,9 @@
     <t>Very nice new hotel. Good location and connections to nearby highway. Modern interior design was nice and hotel was clean. Rooms are large with pillow top matresses for a great nights sleep. Breakfast bar was good with the usual LQ choices. Cereal, waffles, eggs, bacon, sausage, biscuits with gravy. Really a pretty good breakfast but the coffee is not good. LaQuinta should really spend the extra dollars to drew coffee in the morning, not their instant coffee machine stuff. Grounds were nice with new sod starting to green up. Safe area but could use more parking space. Pet friendly is great. Hotel was packed with dog show people and pets which was really fun. Need more luggage carts and maybe some that can carry hang-ups bags. Overall this is a nice place to stay.More</t>
   </si>
   <si>
+    <t>Jeremy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r259809843-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2033,6 +2309,9 @@
   </si>
   <si>
     <t>We stopped here on our way to our destination. The building still has the new smell to it, the furnishings are all new and modern and the shower was fantastic! It even has an indoor pool and hot tub. Also has an awesome fitness center including free weights with cardio equipment.  If you like walking paths, there is a decommissioned golf course 2 blocks away which is a great hideaway from the big city, very peaceful.</t>
+  </si>
+  <si>
+    <t>CMOMOM</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r257524369-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
@@ -2062,6 +2341,9 @@
 I suggest using caution if you stay here.  It would be OK if you have to work in the area, but it was not a comfortable location for...When we called the hotel, they said the hotel was brand new.  Not true.  The hotel has been refurbished and looks nice on the surface, BUT...the walls are so thin, we could hear the people talking in the rooms on either side.  The breakfast is bare-bones, so don't expect much.  This hotel is in a flight path, so no matter what room you're in, the noise continues until 8 to 10 p.m. each night.The worst part is night clerk's customer service.  We asked the night front desk person for a quiet room and were given a top floor right in the flight path.  The next day, it started smelling horribly of rotten eggs.  When we complained, they said, "Oh, that's from a previous guest."  The front desk manager for days was super helpful and moved us.  He apologized profusely and was very accommodating.The other weird, cost-cutting measure here is the indoor pool is NOT HEATED!  It was icy cold, and we couldn't swim.  The night front desk clerk had also placed an out of order sign on the door regarding the small spa.  They said it would take days to have it repaired.  The day front desk manager called the spa repair company and had it fixed in two hours.I suggest using caution if you stay here.  It would be OK if you have to work in the area, but it was not a comfortable location for a family on a short vacation.  If you have to do any work in the room, be aware that the airplane noise makes that extremely dicey.More</t>
   </si>
   <si>
+    <t>Bah B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r255125263-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2075,6 +2357,9 @@
   </si>
   <si>
     <t>Hotel is brand new. Very convenient to all major highways. Inside of the hotel is really great with contemporary design. I would rate this as a 3 star hotel at least. Folks at front desk were very friendly and courteous. Hotel feels very warm and safe. Free breakfast was nice bonus in morning! Coffee could be little better.I would love to see a Starbucks stall in breakfast area.</t>
+  </si>
+  <si>
+    <t>A La Quinta traveler</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7149417-r250671981-La_Quinta_Inn_Suites_Fort_Worth_West_I_30-Fort_Worth_Texas.html</t>
@@ -2591,43 +2876,47 @@
       <c r="A2" t="n">
         <v>63972</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>166111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -2651,50 +2940,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>63972</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>166112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2716,56 +3009,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>63972</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>166113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -2789,50 +3086,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>63972</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>166114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2846,50 +3147,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>63972</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>6744</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2913,50 +3218,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>63972</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>166115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2980,50 +3289,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>63972</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>166116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -3047,50 +3360,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>63972</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>166117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>91</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L9" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>85</v>
-      </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3114,50 +3431,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>63972</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>166118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -3181,50 +3502,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>63972</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>13144</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3238,50 +3563,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>63972</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>166119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -3303,56 +3632,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="X12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>63972</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>166120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -3374,56 +3707,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="X13" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>63972</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>1826</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -3445,56 +3782,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="X14" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="Y14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>63972</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>166121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3516,56 +3857,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="X15" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="Y15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>63972</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>71253</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3587,56 +3932,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="X16" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="Y16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>63972</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>166122</v>
+      </c>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3658,56 +4007,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="X17" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="Y17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>63972</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>166123</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3719,56 +4072,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="X18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>63972</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>166124</v>
+      </c>
+      <c r="C19" t="s">
+        <v>173</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="O19" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3790,56 +4147,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="X19" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="Y19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>63972</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>13412</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>162</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
-        <v>163</v>
-      </c>
-      <c r="J20" t="s">
-        <v>164</v>
-      </c>
-      <c r="K20" t="s">
-        <v>165</v>
-      </c>
-      <c r="L20" t="s">
-        <v>166</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>146</v>
-      </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3861,56 +4222,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="X20" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="Y20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>63972</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>166125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>187</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3922,56 +4287,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="X21" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="Y21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>63972</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>166126</v>
+      </c>
+      <c r="C22" t="s">
+        <v>194</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="J22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -3993,56 +4362,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="X22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="Y22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>63972</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>166127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>204</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="J23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -4064,54 +4437,58 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="X23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="Y23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>63972</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>166128</v>
+      </c>
+      <c r="C24" t="s">
+        <v>214</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4133,56 +4510,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="X24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="Y24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>63972</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>166129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>223</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="J25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="K25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="O25" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -4204,56 +4585,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="X25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="Y25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>63972</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>14469</v>
+      </c>
+      <c r="C26" t="s">
+        <v>232</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="J26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4265,56 +4650,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="X26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="Y26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>63972</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>31904</v>
+      </c>
+      <c r="C27" t="s">
+        <v>242</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="J27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="K27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="O27" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -4332,56 +4721,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="X27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="Y27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>63972</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>166130</v>
+      </c>
+      <c r="C28" t="s">
+        <v>252</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="J28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="K28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4393,56 +4786,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="X28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="Y28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>63972</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>166131</v>
+      </c>
+      <c r="C29" t="s">
+        <v>261</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="J29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="K29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -4464,56 +4861,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="X29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="Y29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>63972</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>605</v>
+      </c>
+      <c r="C30" t="s">
+        <v>270</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="J30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="K30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="L30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="O30" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4529,56 +4930,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="X30" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="Y30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>63972</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>52537</v>
+      </c>
+      <c r="C31" t="s">
+        <v>277</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="J31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O31" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4596,56 +5001,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="X31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="Y31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>63972</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>166132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>286</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="J32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="K32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O32" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4667,56 +5076,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="X32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="Y32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>63972</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>166133</v>
+      </c>
+      <c r="C33" t="s">
+        <v>295</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="J33" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="K33" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="O33" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4728,56 +5141,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="X33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="Y33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>63972</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>166134</v>
+      </c>
+      <c r="C34" t="s">
+        <v>305</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="J34" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="K34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O34" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -4799,56 +5216,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="X34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Y34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>63972</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>87654</v>
+      </c>
+      <c r="C35" t="s">
+        <v>314</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="J35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="K35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4860,56 +5281,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="X35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="Y35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>63972</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>166135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>323</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="J36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="K36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4931,54 +5356,58 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>63972</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>3042</v>
+      </c>
+      <c r="C37" t="s">
+        <v>331</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="J37" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="K37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -4996,56 +5425,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="X37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="Y37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>63972</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>166136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>340</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="J38" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="K38" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="L38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5057,56 +5490,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="X38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="Y38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>63972</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>163366</v>
+      </c>
+      <c r="C39" t="s">
+        <v>349</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="J39" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="K39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5124,56 +5561,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="X39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="Y39" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>63972</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>166137</v>
+      </c>
+      <c r="C40" t="s">
+        <v>358</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="J40" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="K40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="L40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="O40" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5195,56 +5636,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="X40" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="Y40" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>63972</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>166138</v>
+      </c>
+      <c r="C41" t="s">
+        <v>368</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="J41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="K41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5266,56 +5711,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="X41" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="Y41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>63972</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>166139</v>
+      </c>
+      <c r="C42" t="s">
+        <v>375</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="J42" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="K42" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="L42" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="O42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -5337,56 +5786,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="X42" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="Y42" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>63972</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>166140</v>
+      </c>
+      <c r="C43" t="s">
+        <v>381</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="J43" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="K43" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="L43" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="O43" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5398,56 +5851,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="X43" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="Y43" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>63972</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>166141</v>
+      </c>
+      <c r="C44" t="s">
+        <v>390</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="J44" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="K44" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="L44" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5469,56 +5926,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="X44" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="Y44" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>63972</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>166142</v>
+      </c>
+      <c r="C45" t="s">
+        <v>397</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="J45" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="K45" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="L45" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="O45" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -5540,56 +6001,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="X45" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="Y45" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>63972</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>166143</v>
+      </c>
+      <c r="C46" t="s">
+        <v>404</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="J46" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="K46" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="L46" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -5611,56 +6076,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="X46" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="Y46" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>63972</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>166144</v>
+      </c>
+      <c r="C47" t="s">
+        <v>412</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="J47" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="K47" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="L47" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="O47" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5682,56 +6151,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="X47" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="Y47" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>63972</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>166145</v>
+      </c>
+      <c r="C48" t="s">
+        <v>420</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="J48" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="K48" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="L48" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="O48" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5743,56 +6216,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="X48" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="Y48" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>63972</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>166146</v>
+      </c>
+      <c r="C49" t="s">
+        <v>428</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="J49" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="K49" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="L49" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -5810,56 +6287,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="X49" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="Y49" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>63972</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>166147</v>
+      </c>
+      <c r="C50" t="s">
+        <v>436</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="J50" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="K50" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="L50" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5875,56 +6356,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="X50" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="Y50" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>63972</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>166148</v>
+      </c>
+      <c r="C51" t="s">
+        <v>443</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="J51" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="K51" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="L51" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -5942,56 +6427,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="X51" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Y51" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>63972</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>166149</v>
+      </c>
+      <c r="C52" t="s">
+        <v>452</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="J52" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="K52" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="L52" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="O52" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -6009,56 +6498,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="X52" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Y52" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>63972</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>166150</v>
+      </c>
+      <c r="C53" t="s">
+        <v>460</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="J53" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="K53" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="L53" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6074,56 +6567,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="X53" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="Y53" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>63972</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>166151</v>
+      </c>
+      <c r="C54" t="s">
+        <v>467</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="J54" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="K54" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="L54" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="O54" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6137,56 +6634,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="X54" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Y54" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>63972</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>34636</v>
+      </c>
+      <c r="C55" t="s">
+        <v>475</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="J55" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="K55" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="L55" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6202,56 +6703,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="X55" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="Y55" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>63972</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>89260</v>
+      </c>
+      <c r="C56" t="s">
+        <v>484</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="J56" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="K56" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="L56" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6263,56 +6768,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="X56" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="Y56" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>63972</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>44034</v>
+      </c>
+      <c r="C57" t="s">
+        <v>491</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="J57" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="K57" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="L57" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="O57" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -6330,56 +6839,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="X57" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="Y57" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>63972</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>55316</v>
+      </c>
+      <c r="C58" t="s">
+        <v>499</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="J58" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="K58" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="L58" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6391,56 +6904,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="X58" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="Y58" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>63972</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>166152</v>
+      </c>
+      <c r="C59" t="s">
+        <v>509</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="J59" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="K59" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="L59" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="O59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6452,47 +6969,51 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="X59" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="Y59" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>63972</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>166153</v>
+      </c>
+      <c r="C60" t="s">
+        <v>517</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="J60" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="K60" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="L60" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
@@ -6509,56 +7030,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="X60" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="Y60" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>63972</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>84893</v>
+      </c>
+      <c r="C61" t="s">
+        <v>524</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="J61" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="K61" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="L61" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="O61" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -6576,56 +7101,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="X61" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="Y61" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>63972</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>166154</v>
+      </c>
+      <c r="C62" t="s">
+        <v>532</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="J62" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
       <c r="K62" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="L62" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="O62" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6637,56 +7166,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="X62" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="Y62" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>63972</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>72788</v>
+      </c>
+      <c r="C63" t="s">
+        <v>540</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>479</v>
+        <v>541</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>480</v>
+        <v>542</v>
       </c>
       <c r="J63" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
       <c r="K63" t="s">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="L63" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6704,56 +7237,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="X63" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="Y63" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>63972</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>166155</v>
+      </c>
+      <c r="C64" t="s">
+        <v>547</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>485</v>
+        <v>548</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>486</v>
+        <v>549</v>
       </c>
       <c r="J64" t="s">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="K64" t="s">
-        <v>488</v>
+        <v>551</v>
       </c>
       <c r="L64" t="s">
-        <v>489</v>
+        <v>552</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="O64" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6775,56 +7312,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="X64" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="Y64" t="s">
-        <v>490</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>63972</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>1270</v>
+      </c>
+      <c r="C65" t="s">
+        <v>554</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>492</v>
+        <v>556</v>
       </c>
       <c r="J65" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="K65" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
       <c r="L65" t="s">
-        <v>495</v>
+        <v>559</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="O65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6842,56 +7383,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="X65" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="Y65" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>63972</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>1483</v>
+      </c>
+      <c r="C66" t="s">
+        <v>561</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>497</v>
+        <v>562</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>498</v>
+        <v>563</v>
       </c>
       <c r="J66" t="s">
-        <v>499</v>
+        <v>564</v>
       </c>
       <c r="K66" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
       <c r="L66" t="s">
-        <v>501</v>
+        <v>566</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>502</v>
+        <v>567</v>
       </c>
       <c r="O66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -6903,56 +7448,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="X66" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="Y66" t="s">
-        <v>503</v>
+        <v>568</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>63972</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>2780</v>
+      </c>
+      <c r="C67" t="s">
+        <v>569</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>505</v>
+        <v>571</v>
       </c>
       <c r="J67" t="s">
-        <v>506</v>
+        <v>572</v>
       </c>
       <c r="K67" t="s">
-        <v>507</v>
+        <v>573</v>
       </c>
       <c r="L67" t="s">
-        <v>508</v>
+        <v>574</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>509</v>
+        <v>575</v>
       </c>
       <c r="O67" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -6964,56 +7513,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="X67" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="Y67" t="s">
-        <v>510</v>
+        <v>576</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>63972</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>166156</v>
+      </c>
+      <c r="C68" t="s">
+        <v>577</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>512</v>
+        <v>579</v>
       </c>
       <c r="J68" t="s">
-        <v>506</v>
+        <v>572</v>
       </c>
       <c r="K68" t="s">
-        <v>513</v>
+        <v>580</v>
       </c>
       <c r="L68" t="s">
-        <v>514</v>
+        <v>581</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>509</v>
+        <v>575</v>
       </c>
       <c r="O68" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -7025,56 +7578,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="X68" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="Y68" t="s">
-        <v>515</v>
+        <v>582</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>63972</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>166157</v>
+      </c>
+      <c r="C69" t="s">
+        <v>583</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>516</v>
+        <v>584</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>517</v>
+        <v>585</v>
       </c>
       <c r="J69" t="s">
-        <v>518</v>
+        <v>586</v>
       </c>
       <c r="K69" t="s">
-        <v>519</v>
+        <v>587</v>
       </c>
       <c r="L69" t="s">
-        <v>520</v>
+        <v>588</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>521</v>
+        <v>589</v>
       </c>
       <c r="O69" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7092,56 +7649,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="X69" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="Y69" t="s">
-        <v>522</v>
+        <v>590</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>63972</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>166158</v>
+      </c>
+      <c r="C70" t="s">
+        <v>591</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>523</v>
+        <v>592</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="J70" t="s">
-        <v>525</v>
+        <v>594</v>
       </c>
       <c r="K70" t="s">
-        <v>526</v>
+        <v>595</v>
       </c>
       <c r="L70" t="s">
-        <v>527</v>
+        <v>596</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>521</v>
+        <v>589</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7163,56 +7724,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="X70" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="Y70" t="s">
-        <v>528</v>
+        <v>597</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>63972</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>2948</v>
+      </c>
+      <c r="C71" t="s">
+        <v>598</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>529</v>
+        <v>599</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="J71" t="s">
-        <v>531</v>
+        <v>601</v>
       </c>
       <c r="K71" t="s">
-        <v>532</v>
+        <v>602</v>
       </c>
       <c r="L71" t="s">
-        <v>533</v>
+        <v>603</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>521</v>
+        <v>589</v>
       </c>
       <c r="O71" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7224,56 +7789,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="X71" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="Y71" t="s">
-        <v>534</v>
+        <v>604</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>63972</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>166159</v>
+      </c>
+      <c r="C72" t="s">
+        <v>605</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F72" t="s">
-        <v>536</v>
+        <v>607</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
       <c r="J72" t="s">
-        <v>538</v>
+        <v>609</v>
       </c>
       <c r="K72" t="s">
-        <v>539</v>
+        <v>610</v>
       </c>
       <c r="L72" t="s">
-        <v>540</v>
+        <v>611</v>
       </c>
       <c r="M72" t="n">
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>541</v>
+        <v>612</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -7291,56 +7860,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="X72" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="Y72" t="s">
-        <v>542</v>
+        <v>613</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>63972</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>166160</v>
+      </c>
+      <c r="C73" t="s">
+        <v>614</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F73" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="J73" t="s">
-        <v>545</v>
+        <v>617</v>
       </c>
       <c r="K73" t="s">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="L73" t="s">
-        <v>547</v>
+        <v>619</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>541</v>
+        <v>612</v>
       </c>
       <c r="O73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7362,56 +7935,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>548</v>
+        <v>620</v>
       </c>
       <c r="X73" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="Y73" t="s">
-        <v>549</v>
+        <v>621</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>63972</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>15091</v>
+      </c>
+      <c r="C74" t="s">
+        <v>622</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F74" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
       <c r="J74" t="s">
-        <v>552</v>
+        <v>625</v>
       </c>
       <c r="K74" t="s">
-        <v>553</v>
+        <v>626</v>
       </c>
       <c r="L74" t="s">
-        <v>554</v>
+        <v>627</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>541</v>
+        <v>612</v>
       </c>
       <c r="O74" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7427,56 +8004,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="X74" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="Y74" t="s">
-        <v>555</v>
+        <v>628</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>63972</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>166161</v>
+      </c>
+      <c r="C75" t="s">
+        <v>629</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F75" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>557</v>
+        <v>631</v>
       </c>
       <c r="J75" t="s">
-        <v>558</v>
+        <v>632</v>
       </c>
       <c r="K75" t="s">
-        <v>559</v>
+        <v>633</v>
       </c>
       <c r="L75" t="s">
-        <v>560</v>
+        <v>634</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>541</v>
+        <v>612</v>
       </c>
       <c r="O75" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7494,56 +8075,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="X75" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="Y75" t="s">
-        <v>561</v>
+        <v>635</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>63972</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>166162</v>
+      </c>
+      <c r="C76" t="s">
+        <v>636</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F76" t="s">
-        <v>562</v>
+        <v>637</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>563</v>
+        <v>638</v>
       </c>
       <c r="J76" t="s">
-        <v>564</v>
+        <v>639</v>
       </c>
       <c r="K76" t="s">
-        <v>565</v>
+        <v>640</v>
       </c>
       <c r="L76" t="s">
-        <v>566</v>
+        <v>641</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>541</v>
+        <v>612</v>
       </c>
       <c r="O76" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7561,56 +8146,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
       <c r="X76" t="s">
-        <v>568</v>
+        <v>643</v>
       </c>
       <c r="Y76" t="s">
-        <v>569</v>
+        <v>644</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>63972</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>166163</v>
+      </c>
+      <c r="C77" t="s">
+        <v>645</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F77" t="s">
-        <v>570</v>
+        <v>646</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>571</v>
+        <v>647</v>
       </c>
       <c r="J77" t="s">
-        <v>572</v>
+        <v>648</v>
       </c>
       <c r="K77" t="s">
-        <v>573</v>
+        <v>649</v>
       </c>
       <c r="L77" t="s">
-        <v>574</v>
+        <v>650</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>575</v>
+        <v>651</v>
       </c>
       <c r="O77" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="n">
@@ -7626,56 +8215,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
       <c r="X77" t="s">
-        <v>568</v>
+        <v>643</v>
       </c>
       <c r="Y77" t="s">
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>63972</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>166164</v>
+      </c>
+      <c r="C78" t="s">
+        <v>653</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F78" t="s">
-        <v>577</v>
+        <v>654</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
       <c r="J78" t="s">
-        <v>579</v>
+        <v>656</v>
       </c>
       <c r="K78" t="s">
-        <v>580</v>
+        <v>657</v>
       </c>
       <c r="L78" t="s">
-        <v>581</v>
+        <v>658</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>575</v>
+        <v>651</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7693,56 +8286,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
       <c r="X78" t="s">
-        <v>568</v>
+        <v>643</v>
       </c>
       <c r="Y78" t="s">
-        <v>582</v>
+        <v>659</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>63972</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>18962</v>
+      </c>
+      <c r="C79" t="s">
+        <v>660</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F79" t="s">
-        <v>583</v>
+        <v>661</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>584</v>
+        <v>662</v>
       </c>
       <c r="J79" t="s">
-        <v>585</v>
+        <v>663</v>
       </c>
       <c r="K79" t="s">
-        <v>586</v>
+        <v>664</v>
       </c>
       <c r="L79" t="s">
-        <v>587</v>
+        <v>665</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>588</v>
+        <v>666</v>
       </c>
       <c r="O79" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="n">
@@ -7760,56 +8357,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
       <c r="X79" t="s">
-        <v>568</v>
+        <v>643</v>
       </c>
       <c r="Y79" t="s">
-        <v>589</v>
+        <v>667</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>63972</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>166165</v>
+      </c>
+      <c r="C80" t="s">
+        <v>668</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F80" t="s">
-        <v>590</v>
+        <v>669</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>591</v>
+        <v>670</v>
       </c>
       <c r="J80" t="s">
-        <v>585</v>
+        <v>663</v>
       </c>
       <c r="K80" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="L80" t="s">
-        <v>593</v>
+        <v>672</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>588</v>
+        <v>666</v>
       </c>
       <c r="O80" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7827,56 +8428,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
       <c r="X80" t="s">
-        <v>568</v>
+        <v>643</v>
       </c>
       <c r="Y80" t="s">
-        <v>594</v>
+        <v>673</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>63972</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>876</v>
+      </c>
+      <c r="C81" t="s">
+        <v>674</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F81" t="s">
-        <v>595</v>
+        <v>675</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>596</v>
+        <v>676</v>
       </c>
       <c r="J81" t="s">
-        <v>597</v>
+        <v>677</v>
       </c>
       <c r="K81" t="s">
-        <v>598</v>
+        <v>678</v>
       </c>
       <c r="L81" t="s">
-        <v>599</v>
+        <v>679</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>588</v>
+        <v>666</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7894,56 +8499,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
       <c r="X81" t="s">
-        <v>568</v>
+        <v>643</v>
       </c>
       <c r="Y81" t="s">
-        <v>600</v>
+        <v>680</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>63972</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>166166</v>
+      </c>
+      <c r="C82" t="s">
+        <v>681</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F82" t="s">
-        <v>601</v>
+        <v>682</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>602</v>
+        <v>683</v>
       </c>
       <c r="J82" t="s">
-        <v>603</v>
+        <v>684</v>
       </c>
       <c r="K82" t="s">
-        <v>604</v>
+        <v>685</v>
       </c>
       <c r="L82" t="s">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7961,56 +8570,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
       <c r="X82" t="s">
-        <v>568</v>
+        <v>643</v>
       </c>
       <c r="Y82" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>63972</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>166167</v>
+      </c>
+      <c r="C83" t="s">
+        <v>689</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F83" t="s">
-        <v>608</v>
+        <v>690</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>609</v>
+        <v>691</v>
       </c>
       <c r="J83" t="s">
-        <v>610</v>
+        <v>692</v>
       </c>
       <c r="K83" t="s">
-        <v>611</v>
+        <v>693</v>
       </c>
       <c r="L83" t="s">
-        <v>612</v>
+        <v>694</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="O83" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="n">
@@ -8028,56 +8641,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
       <c r="X83" t="s">
-        <v>568</v>
+        <v>643</v>
       </c>
       <c r="Y83" t="s">
-        <v>613</v>
+        <v>695</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>63972</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>166168</v>
+      </c>
+      <c r="C84" t="s">
+        <v>696</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F84" t="s">
-        <v>614</v>
+        <v>697</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>615</v>
+        <v>698</v>
       </c>
       <c r="J84" t="s">
-        <v>616</v>
+        <v>699</v>
       </c>
       <c r="K84" t="s">
-        <v>617</v>
+        <v>700</v>
       </c>
       <c r="L84" t="s">
-        <v>618</v>
+        <v>701</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>619</v>
+        <v>702</v>
       </c>
       <c r="O84" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="n">
@@ -8097,50 +8714,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>618</v>
+        <v>701</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>63972</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>2348</v>
+      </c>
+      <c r="C85" t="s">
+        <v>703</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F85" t="s">
-        <v>620</v>
+        <v>704</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>621</v>
+        <v>705</v>
       </c>
       <c r="J85" t="s">
-        <v>622</v>
+        <v>706</v>
       </c>
       <c r="K85" t="s">
-        <v>623</v>
+        <v>707</v>
       </c>
       <c r="L85" t="s">
-        <v>624</v>
+        <v>708</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>619</v>
+        <v>702</v>
       </c>
       <c r="O85" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -8158,50 +8779,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>624</v>
+        <v>708</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>63972</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>166169</v>
+      </c>
+      <c r="C86" t="s">
+        <v>709</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F86" t="s">
-        <v>625</v>
+        <v>710</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>626</v>
+        <v>711</v>
       </c>
       <c r="J86" t="s">
-        <v>627</v>
+        <v>712</v>
       </c>
       <c r="K86" t="s">
-        <v>628</v>
+        <v>713</v>
       </c>
       <c r="L86" t="s">
-        <v>629</v>
+        <v>714</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>619</v>
+        <v>702</v>
       </c>
       <c r="O86" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8221,50 +8846,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>629</v>
+        <v>714</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>63972</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>166170</v>
+      </c>
+      <c r="C87" t="s">
+        <v>715</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F87" t="s">
-        <v>630</v>
+        <v>716</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>631</v>
+        <v>717</v>
       </c>
       <c r="J87" t="s">
-        <v>632</v>
+        <v>718</v>
       </c>
       <c r="K87" t="s">
-        <v>633</v>
+        <v>719</v>
       </c>
       <c r="L87" t="s">
-        <v>634</v>
+        <v>720</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="O87" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P87" t="s"/>
       <c r="Q87" t="n">
@@ -8284,50 +8913,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>634</v>
+        <v>720</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>63972</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>23029</v>
+      </c>
+      <c r="C88" t="s">
+        <v>721</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F88" t="s">
-        <v>635</v>
+        <v>722</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>636</v>
+        <v>723</v>
       </c>
       <c r="J88" t="s">
-        <v>632</v>
+        <v>718</v>
       </c>
       <c r="K88" t="s">
-        <v>637</v>
+        <v>724</v>
       </c>
       <c r="L88" t="s">
-        <v>638</v>
+        <v>725</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>639</v>
+        <v>726</v>
       </c>
       <c r="O88" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8347,50 +8980,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>638</v>
+        <v>725</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>63972</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>166171</v>
+      </c>
+      <c r="C89" t="s">
+        <v>727</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F89" t="s">
-        <v>640</v>
+        <v>728</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>641</v>
+        <v>729</v>
       </c>
       <c r="J89" t="s">
-        <v>642</v>
+        <v>730</v>
       </c>
       <c r="K89" t="s">
-        <v>643</v>
+        <v>731</v>
       </c>
       <c r="L89" t="s">
-        <v>644</v>
+        <v>732</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>645</v>
+        <v>733</v>
       </c>
       <c r="O89" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -8410,50 +9047,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>646</v>
+        <v>734</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>63972</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>364</v>
+      </c>
+      <c r="C90" t="s">
+        <v>735</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F90" t="s">
-        <v>647</v>
+        <v>736</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>648</v>
+        <v>737</v>
       </c>
       <c r="J90" t="s">
-        <v>649</v>
+        <v>738</v>
       </c>
       <c r="K90" t="s">
-        <v>650</v>
+        <v>739</v>
       </c>
       <c r="L90" t="s">
-        <v>651</v>
+        <v>740</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>645</v>
+        <v>733</v>
       </c>
       <c r="O90" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P90" t="s"/>
       <c r="Q90" t="s"/>
@@ -8467,50 +9108,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>651</v>
+        <v>740</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>63972</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>450</v>
+      </c>
+      <c r="C91" t="s">
+        <v>741</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F91" t="s">
-        <v>652</v>
+        <v>742</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>653</v>
+        <v>743</v>
       </c>
       <c r="J91" t="s">
-        <v>654</v>
+        <v>744</v>
       </c>
       <c r="K91" t="s">
-        <v>655</v>
+        <v>745</v>
       </c>
       <c r="L91" t="s">
-        <v>656</v>
+        <v>746</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>645</v>
+        <v>733</v>
       </c>
       <c r="O91" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="P91" t="s"/>
       <c r="Q91" t="s"/>
@@ -8524,50 +9169,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>657</v>
+        <v>747</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>63972</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>35</v>
+      </c>
+      <c r="C92" t="s">
+        <v>748</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F92" t="s">
-        <v>658</v>
+        <v>749</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>659</v>
+        <v>750</v>
       </c>
       <c r="J92" t="s">
-        <v>660</v>
+        <v>751</v>
       </c>
       <c r="K92" t="s">
-        <v>661</v>
+        <v>752</v>
       </c>
       <c r="L92" t="s">
-        <v>662</v>
+        <v>753</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>645</v>
+        <v>733</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8587,50 +9236,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>663</v>
+        <v>754</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>63972</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>86856</v>
+      </c>
+      <c r="C93" t="s">
+        <v>755</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F93" t="s">
-        <v>664</v>
+        <v>756</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>665</v>
+        <v>757</v>
       </c>
       <c r="J93" t="s">
-        <v>666</v>
+        <v>758</v>
       </c>
       <c r="K93" t="s">
-        <v>667</v>
+        <v>759</v>
       </c>
       <c r="L93" t="s">
-        <v>668</v>
+        <v>760</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>645</v>
+        <v>733</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="s"/>
       <c r="Q93" t="s"/>
@@ -8644,50 +9297,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>668</v>
+        <v>760</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>63972</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>166172</v>
+      </c>
+      <c r="C94" t="s">
+        <v>761</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F94" t="s">
-        <v>669</v>
+        <v>762</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>670</v>
+        <v>763</v>
       </c>
       <c r="J94" t="s">
-        <v>671</v>
+        <v>764</v>
       </c>
       <c r="K94" t="s">
-        <v>672</v>
+        <v>765</v>
       </c>
       <c r="L94" t="s">
-        <v>673</v>
+        <v>766</v>
       </c>
       <c r="M94" t="n">
         <v>2</v>
       </c>
       <c r="N94" t="s">
-        <v>674</v>
+        <v>767</v>
       </c>
       <c r="O94" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P94" t="n">
         <v>2</v>
@@ -8707,50 +9364,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>675</v>
+        <v>768</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>63972</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>166173</v>
+      </c>
+      <c r="C95" t="s">
+        <v>769</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F95" t="s">
-        <v>676</v>
+        <v>770</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>677</v>
+        <v>771</v>
       </c>
       <c r="J95" t="s">
-        <v>678</v>
+        <v>772</v>
       </c>
       <c r="K95" t="s">
-        <v>679</v>
+        <v>773</v>
       </c>
       <c r="L95" t="s">
-        <v>680</v>
+        <v>774</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>674</v>
+        <v>767</v>
       </c>
       <c r="O95" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -8768,35 +9429,39 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>680</v>
+        <v>774</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>63972</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C96" t="s">
+        <v>775</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="F96" t="s">
-        <v>681</v>
+        <v>776</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>682</v>
+        <v>777</v>
       </c>
       <c r="J96" t="s">
-        <v>683</v>
+        <v>778</v>
       </c>
       <c r="K96" t="s"/>
       <c r="L96" t="s"/>
@@ -8804,10 +9469,10 @@
         <v>2</v>
       </c>
       <c r="N96" t="s">
-        <v>684</v>
+        <v>779</v>
       </c>
       <c r="O96" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P96" t="n">
         <v>2</v>
@@ -8828,9 +9493,6 @@
       <c r="V96" t="n">
         <v>0</v>
       </c>
-      <c r="W96" t="s"/>
-      <c r="X96" t="s"/>
-      <c r="Y96" t="s"/>
     </row>
   </sheetData>
 </worksheet>
